--- a/200PE_V7/New_Score.xlsx
+++ b/200PE_V7/New_Score.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="479">
   <si>
     <t>FILENAMES</t>
   </si>
@@ -41,6 +41,1416 @@
   </si>
   <si>
     <t>MALSHARE</t>
+  </si>
+  <si>
+    <t>/pptdemo1.pdf</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>/basic_calculator_-template.xls</t>
+  </si>
+  <si>
+    <t>/fichier_type_produits_services_avec_TVA_QuickBooks.xls</t>
+  </si>
+  <si>
+    <t>/manually-uploading-files-using-cmdp.docx</t>
+  </si>
+  <si>
+    <t>/Assembly-Sample-CPL.xls</t>
+  </si>
+  <si>
+    <t>/RTCRtemplate.xlsx</t>
+  </si>
+  <si>
+    <t>/file_example_XLSX_50.xlsx</t>
+  </si>
+  <si>
+    <t>/Disclosure-Review-Request-Memo-template.docx</t>
+  </si>
+  <si>
+    <t>/A17_FlightPlan.pdf</t>
+  </si>
+  <si>
+    <t>/ContributionsTemplate.xlsx</t>
+  </si>
+  <si>
+    <t>/https __grpm.asso.fr_wp-content_uploads_2014_03_sample-pdf.pdf</t>
+  </si>
+  <si>
+    <t>/NH-Research-site-file-templates_V4.1.docx</t>
+  </si>
+  <si>
+    <t>/xlsdemo1.xls</t>
+  </si>
+  <si>
+    <t>/sample-of-csv-file.xlsx</t>
+  </si>
+  <si>
+    <t>/edu-exam-p-sample-sol.pdf</t>
+  </si>
+  <si>
+    <t>/water-glo-atp-calculator-tool.xlsx</t>
+  </si>
+  <si>
+    <t>/sample_message_guidelines.doc</t>
+  </si>
+  <si>
+    <t>/Folder_Samples_31072019.pdf .pdf</t>
+  </si>
+  <si>
+    <t>/t2401_-_rev_b.doc</t>
+  </si>
+  <si>
+    <t>/SLFRF-Recovery-Plan-Performance-Report-Template.docx</t>
+  </si>
+  <si>
+    <t>/pdf20-utf8-test.pdf</t>
+  </si>
+  <si>
+    <t>/ucl_nanostring_sample_submission_form-1.xls</t>
+  </si>
+  <si>
+    <t>/EGA_Array_based_Format_V4.3.xlsx</t>
+  </si>
+  <si>
+    <t>/LPA019.xlsx</t>
+  </si>
+  <si>
+    <t>/file-sample_1MB.doc</t>
+  </si>
+  <si>
+    <t>/file-example_PDF_1MB.pdf</t>
+  </si>
+  <si>
+    <t>/new_sampling_poster_2017_-_m23a.pdf</t>
+  </si>
+  <si>
+    <t>/example_data_protection_addendum.doc</t>
+  </si>
+  <si>
+    <t>/84745.pdf</t>
+  </si>
+  <si>
+    <t>/LTA NFI Libya + Kitting - FINAL.XLS</t>
+  </si>
+  <si>
+    <t>/Soil_observation_template.xlsx</t>
+  </si>
+  <si>
+    <t>/cfpb_debt-collection_sample_covid-19_tenant_eviction_protection_disclosure_language.pdf</t>
+  </si>
+  <si>
+    <t>/nid_14511_fiche_de_calculs_aide_loyers_vp_20211215.xlsx</t>
+  </si>
+  <si>
+    <t>/instructions-for-file-download-tape-retrieval-and-microct-sample-database.pdf</t>
+  </si>
+  <si>
+    <t>/65092C25.DOCX</t>
+  </si>
+  <si>
+    <t>/sample-pdf.pdf</t>
+  </si>
+  <si>
+    <t>/Cisco_VTS_2_0_Solution_Quick_Start_Guide_appendix_0111.pdf</t>
+  </si>
+  <si>
+    <t>/Sample5.DOC</t>
+  </si>
+  <si>
+    <t>/edTPA Special Education.docx</t>
+  </si>
+  <si>
+    <t>/appf.pdf</t>
+  </si>
+  <si>
+    <t>/FileFormat3.xls</t>
+  </si>
+  <si>
+    <t>/c3cp52444b_2.pdf</t>
+  </si>
+  <si>
+    <t>/DownloadingSampleFiles.pdf</t>
+  </si>
+  <si>
+    <t>/devolution-plan-template_082319.docx</t>
+  </si>
+  <si>
+    <t>/covid-19-ets2-sample-mandatory-vaccination-policy.docx</t>
+  </si>
+  <si>
+    <t>/D-2795.xls</t>
+  </si>
+  <si>
+    <t>/Instructions for Filing of 2021 Personal-Relative and Financial Disclosure Statements - 2-22-2021 - Part 2.docx</t>
+  </si>
+  <si>
+    <t>/PDF32000_2008.pdf</t>
+  </si>
+  <si>
+    <t>/Data_Dictionary_Template.xlsx</t>
+  </si>
+  <si>
+    <t>/EDDguide_for_lab.doc</t>
+  </si>
+  <si>
+    <t>/Sample4.DOC</t>
+  </si>
+  <si>
+    <t>/Example Data from Municipality of Serra da Saudade.xls</t>
+  </si>
+  <si>
+    <t>/cvsamples.pdf</t>
+  </si>
+  <si>
+    <t>/UPS_batch-file-shipping_ENG.xlsx</t>
+  </si>
+  <si>
+    <t>/GenericReportingFormat.xls</t>
+  </si>
+  <si>
+    <t>/Sample4.PDF</t>
+  </si>
+  <si>
+    <t>/PGP Encryption and Decryption.docx</t>
+  </si>
+  <si>
+    <t>/sample-submission-form.xls</t>
+  </si>
+  <si>
+    <t>/QRDA1_sample_submission.pdf</t>
+  </si>
+  <si>
+    <t>/scasstudimpfile.doc</t>
+  </si>
+  <si>
+    <t>/AS-07-2017-sample-files-description-v3.1.pdf</t>
+  </si>
+  <si>
+    <t>/sample_chapter7_trustee_disaster.docx</t>
+  </si>
+  <si>
+    <t>/Sample_doc_scott-pdf.pdf</t>
+  </si>
+  <si>
+    <t>/PT_17-23_Attachment-1_CaseMgmtFileAuditReport_Template_12-13-17.xlsx</t>
+  </si>
+  <si>
+    <t>/form4BS.doc</t>
+  </si>
+  <si>
+    <t>/EURL_customer_sampling form.docx</t>
+  </si>
+  <si>
+    <t>/hmarandomsamples.xlsx</t>
+  </si>
+  <si>
+    <t>/parentconsentformeng.doc</t>
+  </si>
+  <si>
+    <t>/pcp_sample_test_computer_enrol_software_13-14_2013_05.xls</t>
+  </si>
+  <si>
+    <t>/gre_research_validity_data.pdf</t>
+  </si>
+  <si>
+    <t>/JPCRD-sample.doc</t>
+  </si>
+  <si>
+    <t>/nasa_esa_mars_sample_return_final_report_small.pdf</t>
+  </si>
+  <si>
+    <t>/README-template.docx</t>
+  </si>
+  <si>
+    <t>/DOC_25449.DOC</t>
+  </si>
+  <si>
+    <t>/PDF 2.0 UTF-8 string and annotation.pdf</t>
+  </si>
+  <si>
+    <t>/microsoft-windows-storage-tiering-events.dll</t>
+  </si>
+  <si>
+    <t>1747.4862029323024</t>
+  </si>
+  <si>
+    <t>109.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>/36d3c7ed57300ef25415a26115259477509e72696f7258c068c51bad485ce452.xlsx</t>
+  </si>
+  <si>
+    <t>2000.0</t>
+  </si>
+  <si>
+    <t>/80440ba83eee4c5b3207899ba785848e5f06db40df76c2124ea5ba4d7a889fca.doc</t>
+  </si>
+  <si>
+    <t>/2a44e245ac795527f4aac9758d8f92b9282d1ffced0d14ef835031b9d439bcee.xlsx</t>
+  </si>
+  <si>
+    <t>/9ca4d3cfeb0c2c020e32bd15bdcb242cc3f25256fa4f5e3eabb25bd2dc57d294.xlsx</t>
+  </si>
+  <si>
+    <t>/91ac698818e35603201125f75938c8a28e118d1c5baceb4b9a8592fdb5b3c607.xlsx</t>
+  </si>
+  <si>
+    <t>/9fb3f6263c08e22323915b1236d642c24b5959a2609ddcc4fefd7ceef48831a6.xlsx</t>
+  </si>
+  <si>
+    <t>/5bb754d74707de268b206970ab3dc53f0687c112f01246b4082e3f7da7ac5bc7.xlsx</t>
+  </si>
+  <si>
+    <t>/6d1609fc15141463d33fc7257df669e162d1febda4d2ec93afc8dfecc7fc631e.xlsx</t>
+  </si>
+  <si>
+    <t>2314.731352948542</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>/mfperfhelper.dll</t>
+  </si>
+  <si>
+    <t>2452.4093268920574</t>
+  </si>
+  <si>
+    <t>139.0</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>/fixmapi.exe</t>
+  </si>
+  <si>
+    <t>2579.8380454622366</t>
+  </si>
+  <si>
+    <t>159.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>/PhoneOm.dll</t>
+  </si>
+  <si>
+    <t>3224.3374669972254</t>
+  </si>
+  <si>
+    <t>194.0</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>/sxstrace.exe</t>
+  </si>
+  <si>
+    <t>3530.7739609389046</t>
+  </si>
+  <si>
+    <t>219.0</t>
+  </si>
+  <si>
+    <t>/tscon.exe</t>
+  </si>
+  <si>
+    <t>3828.9316422328375</t>
+  </si>
+  <si>
+    <t>229.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>/rwinsta.exe</t>
+  </si>
+  <si>
+    <t>/SystemPropertiesProtection.exe</t>
+  </si>
+  <si>
+    <t>3847.7525994311272</t>
+  </si>
+  <si>
+    <t>239.0</t>
+  </si>
+  <si>
+    <t>/MSchedExe.exe</t>
+  </si>
+  <si>
+    <t>/SpectrumSyncClient.dll</t>
+  </si>
+  <si>
+    <t>4224.023274396717</t>
+  </si>
+  <si>
+    <t>264.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>/RemoteWipeCSP.dll</t>
+  </si>
+  <si>
+    <t>4243.975897546406</t>
+  </si>
+  <si>
+    <t>/WSReset.exe</t>
+  </si>
+  <si>
+    <t>4275.602331198037</t>
+  </si>
+  <si>
+    <t>249.0</t>
+  </si>
+  <si>
+    <t>16.5</t>
+  </si>
+  <si>
+    <t>/GenValObj.exe</t>
+  </si>
+  <si>
+    <t>4503.92583146806</t>
+  </si>
+  <si>
+    <t>259.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>/ksetup.exe</t>
+  </si>
+  <si>
+    <t>4750.504455960672</t>
+  </si>
+  <si>
+    <t>284.0</t>
+  </si>
+  <si>
+    <t>/6b5b285f971af09db77efb9dfa1afdb14b7888eb3bee640851055ccb2df1b33e.xlsx</t>
+  </si>
+  <si>
+    <t>4800.0</t>
+  </si>
+  <si>
+    <t>2800.0</t>
+  </si>
+  <si>
+    <t>/30109c3c06102f8e616793eb841649b9b9ed50cf19f4d0d3ec0d08cd91f292e7.xlsx</t>
+  </si>
+  <si>
+    <t>/nbtstat.exe</t>
+  </si>
+  <si>
+    <t>4809.23065945834</t>
+  </si>
+  <si>
+    <t>294.0</t>
+  </si>
+  <si>
+    <t>/65aa9e8bd7d963189c17dcad5073481b03c0358e82eed3e01e0b58987d878b2d.xlsx</t>
+  </si>
+  <si>
+    <t>4900.0</t>
+  </si>
+  <si>
+    <t>2900.0</t>
+  </si>
+  <si>
+    <t>/f1d4f3c8a3e9d0d624ef64a1c83770ec920c5f6a66196934b61a26db9c87f759.exe</t>
+  </si>
+  <si>
+    <t>5119.952623149689</t>
+  </si>
+  <si>
+    <t>1100.0</t>
+  </si>
+  <si>
+    <t>/vssadmin.exe</t>
+  </si>
+  <si>
+    <t>5188.330499302427</t>
+  </si>
+  <si>
+    <t>26.5</t>
+  </si>
+  <si>
+    <t>/setbcdlocale.dll</t>
+  </si>
+  <si>
+    <t>5454.295913969028</t>
+  </si>
+  <si>
+    <t>324.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>/5919bc6ea61484b6e21c646a663ddfac4202b18525bb681df11a17892b015169.xlsx</t>
+  </si>
+  <si>
+    <t>5500.0</t>
+  </si>
+  <si>
+    <t>3500.0</t>
+  </si>
+  <si>
+    <t>/SgrmLpac.exe</t>
+  </si>
+  <si>
+    <t>5562.337842365218</t>
+  </si>
+  <si>
+    <t>339.0</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>/TSWbPrxy.exe</t>
+  </si>
+  <si>
+    <t>5820.024444384074</t>
+  </si>
+  <si>
+    <t>354.0</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>/MicrosoftAccountCloudAP.dll</t>
+  </si>
+  <si>
+    <t>5860.495523659151</t>
+  </si>
+  <si>
+    <t>349.0</t>
+  </si>
+  <si>
+    <t>/a07111b0e2baa3dce0e4b5ec4030c3c36ff02c01d7bca655d683d6e55c02e725.xlsx</t>
+  </si>
+  <si>
+    <t>6200.0</t>
+  </si>
+  <si>
+    <t>2200.0</t>
+  </si>
+  <si>
+    <t>/117ef7ac70da5cdbe0e2d7662a56550a8613417e0e2054c0766725445eacaf16.exe</t>
+  </si>
+  <si>
+    <t>6700.0</t>
+  </si>
+  <si>
+    <t>4700.0</t>
+  </si>
+  <si>
+    <t>/SIHClient.exe</t>
+  </si>
+  <si>
+    <t>6733.884278439861</t>
+  </si>
+  <si>
+    <t>389.0</t>
+  </si>
+  <si>
+    <t>28.5</t>
+  </si>
+  <si>
+    <t>/c0d9a445934f06d3f4be670b7a8c29e81418a927c834c3c82de4302c1b3f8e2d.exe</t>
+  </si>
+  <si>
+    <t>6929.692050472977</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>/c18a953ba7e355f106c3027e5f5fea8a7ff896346d303ccdccc60a81afcf66fb.exe</t>
+  </si>
+  <si>
+    <t>7088.996883686191</t>
+  </si>
+  <si>
+    <t>99.0</t>
+  </si>
+  <si>
+    <t>1500.0</t>
+  </si>
+  <si>
+    <t>/bcc89b011c1530ad6b2049556974ed596ebd1c04c15527cf2dd36ed133181f69.xlsx</t>
+  </si>
+  <si>
+    <t>7400.0</t>
+  </si>
+  <si>
+    <t>3400.0</t>
+  </si>
+  <si>
+    <t>/05c605b1a12689d74dc1351f66672c2b361d94283fdb55a3e6400b317d63fc71.xlsx</t>
+  </si>
+  <si>
+    <t>7477.67762353825</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>3100.0</t>
+  </si>
+  <si>
+    <t>/wimserv.exe</t>
+  </si>
+  <si>
+    <t>7903.167382611707</t>
+  </si>
+  <si>
+    <t>459.0</t>
+  </si>
+  <si>
+    <t>31.5</t>
+  </si>
+  <si>
+    <t>/493b04b665ef4700c97bbc2ac7123bb3fe59f8b10533ecb47731fc75a91adce1.exe</t>
+  </si>
+  <si>
+    <t>8019.952623149689</t>
+  </si>
+  <si>
+    <t>4000.0</t>
+  </si>
+  <si>
+    <t>/runonce.exe</t>
+  </si>
+  <si>
+    <t>8060.525035906419</t>
+  </si>
+  <si>
+    <t>479.0</t>
+  </si>
+  <si>
+    <t>23.5</t>
+  </si>
+  <si>
+    <t>/694eb3c66034bd4ab0e3d29b0172fc3ea8f2182597297baed10c1a12a6bba8c5.xlsx</t>
+  </si>
+  <si>
+    <t>8277.67762353825</t>
+  </si>
+  <si>
+    <t>3900.0</t>
+  </si>
+  <si>
+    <t>/068e518b6eececdfe15822cc70c9e2b7aafa41d72f1a8d93e67e15ba55578ec8.exe</t>
+  </si>
+  <si>
+    <t>8279.810492598755</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>4200.0</t>
+  </si>
+  <si>
+    <t>/fa49390bf2e7f3392accfa3203fb803b6bd1d2d5284885a8418f2e78e422de95.exe</t>
+  </si>
+  <si>
+    <t>8300.0</t>
+  </si>
+  <si>
+    <t>4300.0</t>
+  </si>
+  <si>
+    <t>/cb384d88e062b6fdd390df18959925ebfb6cdbda1ef592ec5852a8d2b8ca8a64.exe</t>
+  </si>
+  <si>
+    <t>8606.65993205306</t>
+  </si>
+  <si>
+    <t>70.5</t>
+  </si>
+  <si>
+    <t>3200.0</t>
+  </si>
+  <si>
+    <t>/ie4ushowIE.exe</t>
+  </si>
+  <si>
+    <t>8954.998079788218</t>
+  </si>
+  <si>
+    <t>509.0</t>
+  </si>
+  <si>
+    <t>44.5</t>
+  </si>
+  <si>
+    <t>/bee97bf24d36f6b85ab369e34ceb639d703dc61e8e012bbc781d69f1dd695ff0.exe</t>
+  </si>
+  <si>
+    <t>9100.0</t>
+  </si>
+  <si>
+    <t>5100.0</t>
+  </si>
+  <si>
+    <t>/2943422176311d39160f999ae0ff9b88cc63b5604413b497da1f1420774b2c69.exe</t>
+  </si>
+  <si>
+    <t>9319.012625819127</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>4500.0</t>
+  </si>
+  <si>
+    <t>/60feba660f13d4caa6af3d80ab915f1fdef5355c539a0bd280bc296933309d23.exe</t>
+  </si>
+  <si>
+    <t>10659.885422312547</t>
+  </si>
+  <si>
+    <t>4100.0</t>
+  </si>
+  <si>
+    <t>/bc5c16685482832a733991a0a5a29c0affe69cb5fa4e07c1ad6bae49c46bad2b.exe</t>
+  </si>
+  <si>
+    <t>10719.98017601317</t>
+  </si>
+  <si>
+    <t>/df73bdcf081ccb79d66e5f2ca25509a8390eabbc21516a7ccf6178545eb579b2.exe</t>
+  </si>
+  <si>
+    <t>10800.293949362305</t>
+  </si>
+  <si>
+    <t>289.0</t>
+  </si>
+  <si>
+    <t>/90f3f9ebe2249e9294a134b9bb4c59d380fc5ebbb73251437cc2146d2a646047.exe</t>
+  </si>
+  <si>
+    <t>10987.092012754805</t>
+  </si>
+  <si>
+    <t>244.0</t>
+  </si>
+  <si>
+    <t>/4b24254a2e351333a79359e5f3806fdf086852c5a55aaed919323d70fa06a654.exe</t>
+  </si>
+  <si>
+    <t>11184.45586294392</t>
+  </si>
+  <si>
+    <t>114.0</t>
+  </si>
+  <si>
+    <t>5000.0</t>
+  </si>
+  <si>
+    <t>/3aebe23f4762a2b9990460fb4c4ab71a43890a44882fb6e8ac41a45433c337ad.exe</t>
+  </si>
+  <si>
+    <t>11599.172080329845</t>
+  </si>
+  <si>
+    <t>154.0</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>/c9a6d59745a7eff46ed411e4f7f4894eec5df85d70d931082194b35becc25799.exe</t>
+  </si>
+  <si>
+    <t>12199.224835636225</t>
+  </si>
+  <si>
+    <t>164.0</t>
+  </si>
+  <si>
+    <t>5600.0</t>
+  </si>
+  <si>
+    <t>/0f9a3e60242422bf0a29a4429f7c4321cb98efe0bc61cdba8efc0bc59993fa12.exe</t>
+  </si>
+  <si>
+    <t>12615.007301773161</t>
+  </si>
+  <si>
+    <t>230.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>/tttracer.exe</t>
+  </si>
+  <si>
+    <t>12736.525786642404</t>
+  </si>
+  <si>
+    <t>769.0</t>
+  </si>
+  <si>
+    <t>27.5</t>
+  </si>
+  <si>
+    <t>/f659d674830e90bd0c84f5c7d770a2277b3a96d15e922576f8d567989597fae8.exe</t>
+  </si>
+  <si>
+    <t>12821.852006966506</t>
+  </si>
+  <si>
+    <t>279.0</t>
+  </si>
+  <si>
+    <t>4400.0</t>
+  </si>
+  <si>
+    <t>/a64d9d8b157c7f638aaf8d4955d751339a902fcb4a2502daf382c023e2ea2524.dll</t>
+  </si>
+  <si>
+    <t>12987.121525002074</t>
+  </si>
+  <si>
+    <t>374.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>/e53e0cabe244ecc5a82a6f34318d6be6d8093066192fcb794c80ee6d5cd1ff2b.exe</t>
+  </si>
+  <si>
+    <t>13455.809283950952</t>
+  </si>
+  <si>
+    <t>319.0</t>
+  </si>
+  <si>
+    <t>/293e1fe2ef7e22411a0768e627d3c9127bf0e5f2b12765ef68a177c731e6a49a.exe</t>
+  </si>
+  <si>
+    <t>13457.595791318436</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>80.5</t>
+  </si>
+  <si>
+    <t>5700.0</t>
+  </si>
+  <si>
+    <t>/e399e3fc1f94f17e12ff0c16f8246523cce8b45c27e6c9b8d484e26dbb94b10a.exe</t>
+  </si>
+  <si>
+    <t>13518.075305081784</t>
+  </si>
+  <si>
+    <t>304.0</t>
+  </si>
+  <si>
+    <t>/690b1bf3e998e93794c486c60079162f2db9de5583396c1d1e61fbaea01214a6.exe</t>
+  </si>
+  <si>
+    <t>13738.83064545873</t>
+  </si>
+  <si>
+    <t>299.0</t>
+  </si>
+  <si>
+    <t>/850a0905c028d2db812c6aa8ec5fc3c0c604eded967cacd69df74a02e61378b8.exe</t>
+  </si>
+  <si>
+    <t>13948.249062920495</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>344.0</t>
+  </si>
+  <si>
+    <t>19.5</t>
+  </si>
+  <si>
+    <t>/cd8af5c41e8d847ca8107731cc89b98ee653255e93ef41064a1ce9f1bae35a7e.exe</t>
+  </si>
+  <si>
+    <t>14097.915309927808</t>
+  </si>
+  <si>
+    <t>434.0</t>
+  </si>
+  <si>
+    <t>3000.0</t>
+  </si>
+  <si>
+    <t>/140b818d99e1621f9dcd78c528bac7e58f8756015ed97dbe9f932383d5218096.exe</t>
+  </si>
+  <si>
+    <t>14677.711768817579</t>
+  </si>
+  <si>
+    <t>130.0</t>
+  </si>
+  <si>
+    <t>5200.0</t>
+  </si>
+  <si>
+    <t>/e0c308aaf7f75f1fc0379afd64187aa9f91be931b461c46e1b774f1a0104b279.exe</t>
+  </si>
+  <si>
+    <t>15523.723837919842</t>
+  </si>
+  <si>
+    <t>399.0</t>
+  </si>
+  <si>
+    <t>/e993c045a10bb9404b80445ece1d7e550b091187442f4117f1a34c6bca75d06c.exe</t>
+  </si>
+  <si>
+    <t>15572.444827587464</t>
+  </si>
+  <si>
+    <t>220.0</t>
+  </si>
+  <si>
+    <t>334.0</t>
+  </si>
+  <si>
+    <t>15.5</t>
+  </si>
+  <si>
+    <t>/1aa35f72b7dbf5b8bdfe282c76e7d38250e9925c4045d70e005d00d5a59acad2.exe</t>
+  </si>
+  <si>
+    <t>16367.077236566756</t>
+  </si>
+  <si>
+    <t>419.0</t>
+  </si>
+  <si>
+    <t>/36175851005a9994309f2dca8b8719093a3754c71d105c87c8a56b3527170154.exe</t>
+  </si>
+  <si>
+    <t>16681.557216156507</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>329.0</t>
+  </si>
+  <si>
+    <t>/c2f67092355cada8a5782cc7f50ba81e508950888a9775439b4c1d1f4a6c18f5.exe</t>
+  </si>
+  <si>
+    <t>16840.281854252127</t>
+  </si>
+  <si>
+    <t>766.0</t>
+  </si>
+  <si>
+    <t>700.0</t>
+  </si>
+  <si>
+    <t>/285694b67aa69d6319ccbb02b597f078040394acd449bdabd36c33b09ec81a7c.exe</t>
+  </si>
+  <si>
+    <t>16867.077236566758</t>
+  </si>
+  <si>
+    <t>5300.0</t>
+  </si>
+  <si>
+    <t>/e25d95968d86bd491dadb93ab387142b436770074b879f7adbb860188f8592e5.exe</t>
+  </si>
+  <si>
+    <t>16967.077236566758</t>
+  </si>
+  <si>
+    <t>5400.0</t>
+  </si>
+  <si>
+    <t>/0424bc2c65cb1c1ea15f6d0870d5870dc81d2e3a704ee35ba908cdaf721b9020.exe</t>
+  </si>
+  <si>
+    <t>17072.444827587464</t>
+  </si>
+  <si>
+    <t>/ab65ada1f9b259a38ff9a18aa666465a86aecf440fcb8d35a44c195954241ab6.exe</t>
+  </si>
+  <si>
+    <t>17096.769287039733</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>/b44db0bf0992d55c7353fe368322fe0b1e912b2a381c4bf8b7c56c9fcd2a86ff.exe</t>
+  </si>
+  <si>
+    <t>17130.934146833577</t>
+  </si>
+  <si>
+    <t>4600.0</t>
+  </si>
+  <si>
+    <t>/ad221a0e4b9b7a0a2da6f3c3fb059deda23076d897d7783835d9c39a354a2232.exe</t>
+  </si>
+  <si>
+    <t>17196.769287039733</t>
+  </si>
+  <si>
+    <t>/d9ded5efabfdbf4b0741c546225e2cb788cf84100dfe5adc518ae9572a4cde7e.exe</t>
+  </si>
+  <si>
+    <t>17370.647401284423</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>/ee907caabbeb9840e89ba0a214d4e652a336c882a06d6e93af878fa018275e13.exe</t>
+  </si>
+  <si>
+    <t>17496.539942463838</t>
+  </si>
+  <si>
+    <t>/56612b95088f7c7e53338bdfe5e26e7ec141dab4da16ec2134220cb8e8bbaada.exe</t>
+  </si>
+  <si>
+    <t>17621.99743673754</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>/04821c93b97a6b6ffdf80bcaf3e6491b6de39eff2caed87c19c1531a0c5c87d6.exe</t>
+  </si>
+  <si>
+    <t>17813.55048529245</t>
+  </si>
+  <si>
+    <t>290.0</t>
+  </si>
+  <si>
+    <t>18.5</t>
+  </si>
+  <si>
+    <t>/0020d4df86d5fc878cdf9f071d1fd10821335649eaf1f39a1f891b6c0769b6fe.exe</t>
+  </si>
+  <si>
+    <t>17820.86544755845</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>414.0</t>
+  </si>
+  <si>
+    <t>/33bd48cf4b43ba112ab70369feb0a9eb3b06e317efe95dcee6ffbe0027fef566.exe</t>
+  </si>
+  <si>
+    <t>17920.86544755845</t>
+  </si>
+  <si>
+    <t>/c449bd8ac54c8c55b239bc43363edd87e9308c43d29d6cd9d55f6693da1e8170.exe</t>
+  </si>
+  <si>
+    <t>17990.088903203636</t>
+  </si>
+  <si>
+    <t>270.0</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>/bd8b1c6d1ab08df1f917e4198b39de6ab401ab1d7ee64b6edad45f0f820f1f46.exe</t>
+  </si>
+  <si>
+    <t>18001.907533484547</t>
+  </si>
+  <si>
+    <t>/fb47f25a2cc4590578cf0b81565ad690fc366eb41e8e04a358962287a1b420c3.exe</t>
+  </si>
+  <si>
+    <t>18706.71215944957</t>
+  </si>
+  <si>
+    <t>644.0</t>
+  </si>
+  <si>
+    <t>/82681881e237bca63d8270b781ce807697805aab313c0c4d581c781372a4a96b.exe</t>
+  </si>
+  <si>
+    <t>18928.768482388165</t>
+  </si>
+  <si>
+    <t>594.0</t>
+  </si>
+  <si>
+    <t>42.5</t>
+  </si>
+  <si>
+    <t>/66a186719c8111d97f5f9f44399f45e5ea2a13c6c1f9429a6e6cd2dc149d01c5.exe</t>
+  </si>
+  <si>
+    <t>19265.20147869568</t>
+  </si>
+  <si>
+    <t>654.0</t>
+  </si>
+  <si>
+    <t>/d626d2dd320f5f66816bf3c97a8dd37f1be24b722fa32601c45e3be87791ed97.exe</t>
+  </si>
+  <si>
+    <t>19616.13739417235</t>
+  </si>
+  <si>
+    <t>714.0</t>
+  </si>
+  <si>
+    <t>/0dba6d515139b71f7035feb9dcf95aea269d9adeeedafccd769d185606bfe57b.exe</t>
+  </si>
+  <si>
+    <t>/24a80a4b6c6625d42c81248be8783903cd10d4704763dc725955900fab72dfab.exe</t>
+  </si>
+  <si>
+    <t>19716.13739417235</t>
+  </si>
+  <si>
+    <t>/2bb2abba2a9825b2cdb5cae51e6726824978c56960607d036b6a25bd27e6063f.exe</t>
+  </si>
+  <si>
+    <t>19893.09714850796</t>
+  </si>
+  <si>
+    <t>649.0</t>
+  </si>
+  <si>
+    <t>/80221beedf16097e3e36392e13b3bae27a6cf0d0190987ca98c72f3e8a3c4ab4.exe</t>
+  </si>
+  <si>
+    <t>20080.617429631056</t>
+  </si>
+  <si>
+    <t>440.0</t>
+  </si>
+  <si>
+    <t>14.5</t>
+  </si>
+  <si>
+    <t>/b79b2ba59b7db1a71234a74a8ae8feabe9c0ba039413ad7e1d464c5be7012f3b.exe</t>
+  </si>
+  <si>
+    <t>20470.850011533737</t>
+  </si>
+  <si>
+    <t>749.0</t>
+  </si>
+  <si>
+    <t>/2b8d595d4763ee7ae46bf143f394fe9239d2a0d1a77dea9d2f69cfb5e253c042.exe</t>
+  </si>
+  <si>
+    <t>20695.53999580218</t>
+  </si>
+  <si>
+    <t>530.0</t>
+  </si>
+  <si>
+    <t>/ac6857b9fe4d13e1e9885c5f32ceb4cdd686a191d569a1bfc4a15e18c04d9131.dll</t>
+  </si>
+  <si>
+    <t>20795.789033283152</t>
+  </si>
+  <si>
+    <t>619.0</t>
+  </si>
+  <si>
+    <t>/9d49bcad8a9c0073ff733d47bf3f059ed56139a427598b9a6c7f797aba279ca0.exe</t>
+  </si>
+  <si>
+    <t>21046.317969272073</t>
+  </si>
+  <si>
+    <t>779.0</t>
+  </si>
+  <si>
+    <t>/1b8192ec7f52e9056f5f2c83f0a9c56c83469575fded613e6ae7c1f3505a3c1d.exe</t>
+  </si>
+  <si>
+    <t>21195.53999580218</t>
+  </si>
+  <si>
+    <t>/5737dde2ad2728e0fc513169dd4c5554a7549ed71d1d38cdefe90ab73da3e862.exe</t>
+  </si>
+  <si>
+    <t>21311.43628591793</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>699.0</t>
+  </si>
+  <si>
+    <t>/394e3cb3d77109a7fccbc1abfd00b12581343d953774b72acb2b6cd4b0e66c76.dll</t>
+  </si>
+  <si>
+    <t>21383.144822154856</t>
+  </si>
+  <si>
+    <t>185.0</t>
+  </si>
+  <si>
+    <t>38.5</t>
+  </si>
+  <si>
+    <t>/2f3378a274de141506335d57ed39a2ad9ef7f585c9a38d3bb3dca30b2da05c7e.dll</t>
+  </si>
+  <si>
+    <t>21696.401526718866</t>
+  </si>
+  <si>
+    <t>340.0</t>
+  </si>
+  <si>
+    <t>574.0</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>3800.0</t>
+  </si>
+  <si>
+    <t>/3d99629aa662a13fea1981e06dffdb31557c08b96dbad360622705c07a614c8c.dll</t>
+  </si>
+  <si>
+    <t>22096.401526718866</t>
+  </si>
+  <si>
+    <t>/82fb0084dba14bf73f865fed31fadbcc1d9b0c87330924f65166337cbe1b6323.dll</t>
+  </si>
+  <si>
+    <t>22183.144822154856</t>
+  </si>
+  <si>
+    <t>/d0c3c1f10dd9123b4a7f909419f0c302cea1c673a0a58442119416b4f2c89a67.exe</t>
+  </si>
+  <si>
+    <t>23231.211161733187</t>
+  </si>
+  <si>
+    <t>879.0</t>
+  </si>
+  <si>
+    <t>/d079f48508ae054f1bd2cfb60de81ef8e6fefa7be94d8a05e4aeccaa12152cac.exe</t>
+  </si>
+  <si>
+    <t>23993.444142885968</t>
+  </si>
+  <si>
+    <t>1129.0</t>
+  </si>
+  <si>
+    <t>2100.0</t>
+  </si>
+  <si>
+    <t>/c93a4492b65c992c3216d17f760df29b139edd3d7e8346861d7cdbd1072f72e9.exe</t>
+  </si>
+  <si>
+    <t>24093.444142885968</t>
+  </si>
+  <si>
+    <t>/3a550e32589fda38ebeca5616292a6d6e42842958a43376cd9f01ae6f7d135ee.exe</t>
+  </si>
+  <si>
+    <t>24693.444142885968</t>
+  </si>
+  <si>
+    <t>/b23df45f7f85b0a2cbcc870dd1f9b036c322459c70d19e1badc0acfa90df3ef0.exe</t>
+  </si>
+  <si>
+    <t>24824.018611024272</t>
+  </si>
+  <si>
+    <t>210.0</t>
+  </si>
+  <si>
+    <t>819.0</t>
+  </si>
+  <si>
+    <t>/3e34092ce27276c1b0cdeba1d3f8649258e55f23dfb92fcd9de6d52d5f559e91.exe</t>
+  </si>
+  <si>
+    <t>26314.223738446</t>
+  </si>
+  <si>
+    <t>1160.0</t>
+  </si>
+  <si>
+    <t>/885b5563d73104ef4a5694314b6d71f6526ff9a5fafde8daa7ae7bb6ecd8d8c0.exe</t>
+  </si>
+  <si>
+    <t>27430.971584588082</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>1169.0</t>
+  </si>
+  <si>
+    <t>/1fab157d0875965581784c280d4b74c0adef81be4c002563732dd004207ff8ae.exe</t>
+  </si>
+  <si>
+    <t>27806.64607949347</t>
+  </si>
+  <si>
+    <t>1174.0</t>
+  </si>
+  <si>
+    <t>/4d41e5806129d1aeb4c6278a3e0092bab930a910d2f7db31a7d51fb034971cb0.exe</t>
+  </si>
+  <si>
+    <t>28553.012184395244</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>1094.0</t>
+  </si>
+  <si>
+    <t>/e1c74447881f8150767a7567a159efa3c1b06cf976618241c0f81f9bab684f36.exe</t>
+  </si>
+  <si>
+    <t>28560.434290485166</t>
+  </si>
+  <si>
+    <t>/a9d5dd27eb1a75fb1ddf76fe98671cc1eb78b903dff107aa8612c2d74cb305f7.exe</t>
+  </si>
+  <si>
+    <t>28572.482265341972</t>
+  </si>
+  <si>
+    <t>1159.0</t>
+  </si>
+  <si>
+    <t>/e93cda924639ee5d9ad1837213464df0cc967c35a037750af58be6d97f220a2a.exe</t>
+  </si>
+  <si>
+    <t>29169.348193172358</t>
+  </si>
+  <si>
+    <t>1149.0</t>
+  </si>
+  <si>
+    <t>/2ed8aeaf73ee1a3caf7eb0be7814868c4100efbe1b021e2d964db3b638dc7f3c.exe</t>
+  </si>
+  <si>
+    <t>36353.739213129316</t>
+  </si>
+  <si>
+    <t>1789.0</t>
+  </si>
+  <si>
+    <t>/361cecb9d60feae375d3ba996ba5e68c233723cb5b98332f9dd30c032833b7b2.exe</t>
+  </si>
+  <si>
+    <t>37512.22853237543</t>
+  </si>
+  <si>
+    <t>1799.0</t>
+  </si>
+  <si>
+    <t>/8426bc09e01e893337a5b15b947e6f176c1eb937768c70cd4c0526b0b710523a.exe</t>
+  </si>
+  <si>
+    <t>37712.22853237543</t>
+  </si>
+  <si>
+    <t>/1930f4d1537aa7c7d85b136f6d1848c9e7ed04cb9a6631d4c8d7acdd0fa8b8df.dll</t>
+  </si>
+  <si>
+    <t>40405.470193735</t>
+  </si>
+  <si>
+    <t>1924.0</t>
+  </si>
+  <si>
+    <t>30.5</t>
+  </si>
+  <si>
+    <t>/e5f9a8cee6a1efef515db6dd09c7993617f097374c0f323228dd24a55b317389.exe</t>
+  </si>
+  <si>
+    <t>41296.7167777469</t>
+  </si>
+  <si>
+    <t>2014.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>/06572b9631c3109f4ada0dcc6487b276a6d08959412a30c1adcea358a9fd778f.dll</t>
+  </si>
+  <si>
+    <t>41608.680227806784</t>
+  </si>
+  <si>
+    <t>2009.0</t>
+  </si>
+  <si>
+    <t>/8b28463392c4a0f9af89630bd6e72c8839e0f1684e2c0e18f93202b0a79a0d49.exe</t>
+  </si>
+  <si>
+    <t>45542.7450478021</t>
+  </si>
+  <si>
+    <t>2084.0</t>
+  </si>
+  <si>
+    <t>/3f3d67c996fee6e8830d5d32f6fc34b989e219493d97cd55c329c80eb7f018f4.exe</t>
+  </si>
+  <si>
+    <t>47597.02977849445</t>
+  </si>
+  <si>
+    <t>255.0</t>
+  </si>
+  <si>
+    <t>2144.0</t>
   </si>
 </sst>
 </file>
@@ -372,7 +1782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -398,6 +1808,4006 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" t="s">
+        <v>87</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" t="s">
+        <v>90</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>99</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" t="s">
+        <v>102</v>
+      </c>
+      <c r="F87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>104</v>
+      </c>
+      <c r="B88" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" t="s">
+        <v>106</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89" t="s">
+        <v>109</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" t="s">
+        <v>110</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>112</v>
+      </c>
+      <c r="B90" t="s">
+        <v>113</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" t="s">
+        <v>114</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>115</v>
+      </c>
+      <c r="B91" t="s">
+        <v>116</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" t="s">
+        <v>117</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92" t="s">
+        <v>116</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" t="s">
+        <v>117</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>120</v>
+      </c>
+      <c r="B93" t="s">
+        <v>121</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" t="s">
+        <v>122</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>123</v>
+      </c>
+      <c r="B94" t="s">
+        <v>121</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" t="s">
+        <v>122</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>124</v>
+      </c>
+      <c r="B95" t="s">
+        <v>125</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" t="s">
+        <v>126</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>128</v>
+      </c>
+      <c r="B96" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" t="s">
+        <v>126</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>130</v>
+      </c>
+      <c r="B97" t="s">
+        <v>131</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" t="s">
+        <v>132</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>134</v>
+      </c>
+      <c r="B98" t="s">
+        <v>135</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" t="s">
+        <v>136</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>138</v>
+      </c>
+      <c r="B99" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" t="s">
+        <v>140</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>141</v>
+      </c>
+      <c r="B100" t="s">
+        <v>142</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>144</v>
+      </c>
+      <c r="B101" t="s">
+        <v>142</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>145</v>
+      </c>
+      <c r="B102" t="s">
+        <v>146</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" t="s">
+        <v>147</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>148</v>
+      </c>
+      <c r="B103" t="s">
+        <v>149</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>151</v>
+      </c>
+      <c r="B104" t="s">
+        <v>152</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>154</v>
+      </c>
+      <c r="B105" t="s">
+        <v>155</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" t="s">
+        <v>147</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>157</v>
+      </c>
+      <c r="B106" t="s">
+        <v>158</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" t="s">
+        <v>159</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>161</v>
+      </c>
+      <c r="B107" t="s">
+        <v>162</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>164</v>
+      </c>
+      <c r="B108" t="s">
+        <v>165</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" t="s">
+        <v>166</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>168</v>
+      </c>
+      <c r="B109" t="s">
+        <v>169</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" t="s">
+        <v>170</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>172</v>
+      </c>
+      <c r="B110" t="s">
+        <v>173</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" t="s">
+        <v>174</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>175</v>
+      </c>
+      <c r="B111" t="s">
+        <v>176</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>178</v>
+      </c>
+      <c r="B112" t="s">
+        <v>179</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>181</v>
+      </c>
+      <c r="B113" t="s">
+        <v>182</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" t="s">
+        <v>183</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>185</v>
+      </c>
+      <c r="B114" t="s">
+        <v>186</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>188</v>
+      </c>
+      <c r="B115" t="s">
+        <v>189</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" t="s">
+        <v>190</v>
+      </c>
+      <c r="F115" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>192</v>
+      </c>
+      <c r="B116" t="s">
+        <v>193</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>195</v>
+      </c>
+      <c r="B117" t="s">
+        <v>196</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117" t="s">
+        <v>197</v>
+      </c>
+      <c r="E117" t="s">
+        <v>10</v>
+      </c>
+      <c r="F117" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>199</v>
+      </c>
+      <c r="B118" t="s">
+        <v>200</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" t="s">
+        <v>201</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>203</v>
+      </c>
+      <c r="B119" t="s">
+        <v>204</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>206</v>
+      </c>
+      <c r="B120" t="s">
+        <v>207</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" t="s">
+        <v>208</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>210</v>
+      </c>
+      <c r="B121" t="s">
+        <v>211</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>197</v>
+      </c>
+      <c r="E121" t="s">
+        <v>10</v>
+      </c>
+      <c r="F121" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>213</v>
+      </c>
+      <c r="B122" t="s">
+        <v>214</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>217</v>
+      </c>
+      <c r="B123" t="s">
+        <v>218</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>220</v>
+      </c>
+      <c r="B124" t="s">
+        <v>221</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>224</v>
+      </c>
+      <c r="B125" t="s">
+        <v>225</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" t="s">
+        <v>226</v>
+      </c>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>228</v>
+      </c>
+      <c r="B126" t="s">
+        <v>229</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" t="s">
+        <v>10</v>
+      </c>
+      <c r="E126" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>231</v>
+      </c>
+      <c r="B127" t="s">
+        <v>232</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s">
+        <v>233</v>
+      </c>
+      <c r="E127" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>235</v>
+      </c>
+      <c r="B128" t="s">
+        <v>236</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" t="s">
+        <v>106</v>
+      </c>
+      <c r="F128" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>238</v>
+      </c>
+      <c r="B129" t="s">
+        <v>239</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" t="s">
+        <v>106</v>
+      </c>
+      <c r="F129" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>240</v>
+      </c>
+      <c r="B130" t="s">
+        <v>241</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2</v>
+      </c>
+      <c r="D130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" t="s">
+        <v>242</v>
+      </c>
+      <c r="F130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>243</v>
+      </c>
+      <c r="B131" t="s">
+        <v>244</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" t="s">
+        <v>10</v>
+      </c>
+      <c r="E131" t="s">
+        <v>245</v>
+      </c>
+      <c r="F131" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>246</v>
+      </c>
+      <c r="B132" t="s">
+        <v>247</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2</v>
+      </c>
+      <c r="D132" t="s">
+        <v>197</v>
+      </c>
+      <c r="E132" t="s">
+        <v>248</v>
+      </c>
+      <c r="F132" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>250</v>
+      </c>
+      <c r="B133" t="s">
+        <v>251</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" t="s">
+        <v>252</v>
+      </c>
+      <c r="F133" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>254</v>
+      </c>
+      <c r="B134" t="s">
+        <v>255</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" t="s">
+        <v>256</v>
+      </c>
+      <c r="F134" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>258</v>
+      </c>
+      <c r="B135" t="s">
+        <v>259</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" t="s">
+        <v>260</v>
+      </c>
+      <c r="E135" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>262</v>
+      </c>
+      <c r="B136" t="s">
+        <v>263</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136" t="s">
+        <v>10</v>
+      </c>
+      <c r="E136" t="s">
+        <v>264</v>
+      </c>
+      <c r="F136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>266</v>
+      </c>
+      <c r="B137" t="s">
+        <v>267</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" t="s">
+        <v>10</v>
+      </c>
+      <c r="E137" t="s">
+        <v>268</v>
+      </c>
+      <c r="F137" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>270</v>
+      </c>
+      <c r="B138" t="s">
+        <v>271</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" t="s">
+        <v>10</v>
+      </c>
+      <c r="E138" t="s">
+        <v>272</v>
+      </c>
+      <c r="F138" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>274</v>
+      </c>
+      <c r="B139" t="s">
+        <v>275</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139" t="s">
+        <v>276</v>
+      </c>
+      <c r="F139" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>277</v>
+      </c>
+      <c r="B140" t="s">
+        <v>278</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" t="s">
+        <v>279</v>
+      </c>
+      <c r="E140" t="s">
+        <v>280</v>
+      </c>
+      <c r="F140" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>283</v>
+      </c>
+      <c r="B141" t="s">
+        <v>284</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" t="s">
+        <v>285</v>
+      </c>
+      <c r="F141" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>286</v>
+      </c>
+      <c r="B142" t="s">
+        <v>287</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142" t="s">
+        <v>288</v>
+      </c>
+      <c r="F142" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>289</v>
+      </c>
+      <c r="B143" t="s">
+        <v>290</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143" t="s">
+        <v>291</v>
+      </c>
+      <c r="E143" t="s">
+        <v>292</v>
+      </c>
+      <c r="F143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>294</v>
+      </c>
+      <c r="B144" t="s">
+        <v>295</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144" t="s">
+        <v>296</v>
+      </c>
+      <c r="F144" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>298</v>
+      </c>
+      <c r="B145" t="s">
+        <v>299</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145" t="s">
+        <v>300</v>
+      </c>
+      <c r="E145" t="s">
+        <v>292</v>
+      </c>
+      <c r="F145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>302</v>
+      </c>
+      <c r="B146" t="s">
+        <v>303</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" t="s">
+        <v>304</v>
+      </c>
+      <c r="F146" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>305</v>
+      </c>
+      <c r="B147" t="s">
+        <v>306</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147" t="s">
+        <v>307</v>
+      </c>
+      <c r="E147" t="s">
+        <v>308</v>
+      </c>
+      <c r="F147" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>310</v>
+      </c>
+      <c r="B148" t="s">
+        <v>311</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" t="s">
+        <v>197</v>
+      </c>
+      <c r="E148" t="s">
+        <v>312</v>
+      </c>
+      <c r="F148" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>313</v>
+      </c>
+      <c r="B149" t="s">
+        <v>314</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2</v>
+      </c>
+      <c r="D149" t="s">
+        <v>315</v>
+      </c>
+      <c r="E149" t="s">
+        <v>316</v>
+      </c>
+      <c r="F149" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>317</v>
+      </c>
+      <c r="B150" t="s">
+        <v>318</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2</v>
+      </c>
+      <c r="D150" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150" t="s">
+        <v>319</v>
+      </c>
+      <c r="F150" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>321</v>
+      </c>
+      <c r="B151" t="s">
+        <v>322</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151" t="s">
+        <v>197</v>
+      </c>
+      <c r="E151" t="s">
+        <v>312</v>
+      </c>
+      <c r="F151" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>324</v>
+      </c>
+      <c r="B152" t="s">
+        <v>325</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2</v>
+      </c>
+      <c r="D152" t="s">
+        <v>197</v>
+      </c>
+      <c r="E152" t="s">
+        <v>312</v>
+      </c>
+      <c r="F152" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>327</v>
+      </c>
+      <c r="B153" t="s">
+        <v>328</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" t="s">
+        <v>307</v>
+      </c>
+      <c r="E153" t="s">
+        <v>308</v>
+      </c>
+      <c r="F153" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>329</v>
+      </c>
+      <c r="B154" t="s">
+        <v>330</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" t="s">
+        <v>197</v>
+      </c>
+      <c r="E154" t="s">
+        <v>312</v>
+      </c>
+      <c r="F154" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>332</v>
+      </c>
+      <c r="B155" t="s">
+        <v>333</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" t="s">
+        <v>307</v>
+      </c>
+      <c r="E155" t="s">
+        <v>292</v>
+      </c>
+      <c r="F155" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>335</v>
+      </c>
+      <c r="B156" t="s">
+        <v>336</v>
+      </c>
+      <c r="C156" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156" t="s">
+        <v>197</v>
+      </c>
+      <c r="E156" t="s">
+        <v>312</v>
+      </c>
+      <c r="F156" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>337</v>
+      </c>
+      <c r="B157" t="s">
+        <v>338</v>
+      </c>
+      <c r="C157" t="s">
+        <v>2</v>
+      </c>
+      <c r="D157" t="s">
+        <v>339</v>
+      </c>
+      <c r="E157" t="s">
+        <v>312</v>
+      </c>
+      <c r="F157" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>340</v>
+      </c>
+      <c r="B158" t="s">
+        <v>341</v>
+      </c>
+      <c r="C158" t="s">
+        <v>2</v>
+      </c>
+      <c r="D158" t="s">
+        <v>291</v>
+      </c>
+      <c r="E158" t="s">
+        <v>312</v>
+      </c>
+      <c r="F158" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>342</v>
+      </c>
+      <c r="B159" t="s">
+        <v>343</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2</v>
+      </c>
+      <c r="D159" t="s">
+        <v>307</v>
+      </c>
+      <c r="E159" t="s">
+        <v>166</v>
+      </c>
+      <c r="F159" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>345</v>
+      </c>
+      <c r="B160" t="s">
+        <v>346</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160" t="s">
+        <v>347</v>
+      </c>
+      <c r="E160" t="s">
+        <v>308</v>
+      </c>
+      <c r="F160" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>349</v>
+      </c>
+      <c r="B161" t="s">
+        <v>350</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161" t="s">
+        <v>351</v>
+      </c>
+      <c r="E161" t="s">
+        <v>352</v>
+      </c>
+      <c r="F161" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>353</v>
+      </c>
+      <c r="B162" t="s">
+        <v>354</v>
+      </c>
+      <c r="C162" t="s">
+        <v>2</v>
+      </c>
+      <c r="D162" t="s">
+        <v>351</v>
+      </c>
+      <c r="E162" t="s">
+        <v>352</v>
+      </c>
+      <c r="F162" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>355</v>
+      </c>
+      <c r="B163" t="s">
+        <v>356</v>
+      </c>
+      <c r="C163" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163" t="s">
+        <v>357</v>
+      </c>
+      <c r="E163" t="s">
+        <v>292</v>
+      </c>
+      <c r="F163" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>359</v>
+      </c>
+      <c r="B164" t="s">
+        <v>360</v>
+      </c>
+      <c r="C164" t="s">
+        <v>2</v>
+      </c>
+      <c r="D164" t="s">
+        <v>357</v>
+      </c>
+      <c r="E164" t="s">
+        <v>308</v>
+      </c>
+      <c r="F164" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>361</v>
+      </c>
+      <c r="B165" t="s">
+        <v>362</v>
+      </c>
+      <c r="C165" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165" t="s">
+        <v>10</v>
+      </c>
+      <c r="E165" t="s">
+        <v>363</v>
+      </c>
+      <c r="F165" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>364</v>
+      </c>
+      <c r="B166" t="s">
+        <v>365</v>
+      </c>
+      <c r="C166" t="s">
+        <v>2</v>
+      </c>
+      <c r="D166" t="s">
+        <v>279</v>
+      </c>
+      <c r="E166" t="s">
+        <v>366</v>
+      </c>
+      <c r="F166" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>368</v>
+      </c>
+      <c r="B167" t="s">
+        <v>369</v>
+      </c>
+      <c r="C167" t="s">
+        <v>2</v>
+      </c>
+      <c r="D167" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" t="s">
+        <v>370</v>
+      </c>
+      <c r="F167" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
+        <v>371</v>
+      </c>
+      <c r="B168" t="s">
+        <v>372</v>
+      </c>
+      <c r="C168" t="s">
+        <v>2</v>
+      </c>
+      <c r="D168" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" t="s">
+        <v>373</v>
+      </c>
+      <c r="F168" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>374</v>
+      </c>
+      <c r="B169" t="s">
+        <v>372</v>
+      </c>
+      <c r="C169" t="s">
+        <v>2</v>
+      </c>
+      <c r="D169" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169" t="s">
+        <v>373</v>
+      </c>
+      <c r="F169" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="s">
+        <v>375</v>
+      </c>
+      <c r="B170" t="s">
+        <v>376</v>
+      </c>
+      <c r="C170" t="s">
+        <v>2</v>
+      </c>
+      <c r="D170" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170" t="s">
+        <v>373</v>
+      </c>
+      <c r="F170" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
+        <v>377</v>
+      </c>
+      <c r="B171" t="s">
+        <v>378</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171" t="s">
+        <v>291</v>
+      </c>
+      <c r="E171" t="s">
+        <v>379</v>
+      </c>
+      <c r="F171" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>380</v>
+      </c>
+      <c r="B172" t="s">
+        <v>381</v>
+      </c>
+      <c r="C172" t="s">
+        <v>2</v>
+      </c>
+      <c r="D172" t="s">
+        <v>382</v>
+      </c>
+      <c r="E172" t="s">
+        <v>292</v>
+      </c>
+      <c r="F172" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
+        <v>384</v>
+      </c>
+      <c r="B173" t="s">
+        <v>385</v>
+      </c>
+      <c r="C173" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173" t="s">
+        <v>386</v>
+      </c>
+      <c r="F173" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>387</v>
+      </c>
+      <c r="B174" t="s">
+        <v>388</v>
+      </c>
+      <c r="C174" t="s">
+        <v>2</v>
+      </c>
+      <c r="D174" t="s">
+        <v>389</v>
+      </c>
+      <c r="E174" t="s">
+        <v>308</v>
+      </c>
+      <c r="F174" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>390</v>
+      </c>
+      <c r="B175" t="s">
+        <v>391</v>
+      </c>
+      <c r="C175" t="s">
+        <v>2</v>
+      </c>
+      <c r="D175" t="s">
+        <v>300</v>
+      </c>
+      <c r="E175" t="s">
+        <v>392</v>
+      </c>
+      <c r="F175" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
+        <v>393</v>
+      </c>
+      <c r="B176" t="s">
+        <v>394</v>
+      </c>
+      <c r="C176" t="s">
+        <v>2</v>
+      </c>
+      <c r="D176" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" t="s">
+        <v>395</v>
+      </c>
+      <c r="F176" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>396</v>
+      </c>
+      <c r="B177" t="s">
+        <v>397</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2</v>
+      </c>
+      <c r="D177" t="s">
+        <v>389</v>
+      </c>
+      <c r="E177" t="s">
+        <v>308</v>
+      </c>
+      <c r="F177" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>398</v>
+      </c>
+      <c r="B178" t="s">
+        <v>399</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2</v>
+      </c>
+      <c r="D178" t="s">
+        <v>400</v>
+      </c>
+      <c r="E178" t="s">
+        <v>401</v>
+      </c>
+      <c r="F178" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>402</v>
+      </c>
+      <c r="B179" t="s">
+        <v>403</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2</v>
+      </c>
+      <c r="D179" t="s">
+        <v>404</v>
+      </c>
+      <c r="E179" t="s">
+        <v>379</v>
+      </c>
+      <c r="F179" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>406</v>
+      </c>
+      <c r="B180" t="s">
+        <v>407</v>
+      </c>
+      <c r="C180" t="s">
+        <v>2</v>
+      </c>
+      <c r="D180" t="s">
+        <v>408</v>
+      </c>
+      <c r="E180" t="s">
+        <v>409</v>
+      </c>
+      <c r="F180" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>412</v>
+      </c>
+      <c r="B181" t="s">
+        <v>413</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2</v>
+      </c>
+      <c r="D181" t="s">
+        <v>408</v>
+      </c>
+      <c r="E181" t="s">
+        <v>409</v>
+      </c>
+      <c r="F181" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>414</v>
+      </c>
+      <c r="B182" t="s">
+        <v>415</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" t="s">
+        <v>404</v>
+      </c>
+      <c r="E182" t="s">
+        <v>379</v>
+      </c>
+      <c r="F182" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>416</v>
+      </c>
+      <c r="B183" t="s">
+        <v>417</v>
+      </c>
+      <c r="C183" t="s">
+        <v>2</v>
+      </c>
+      <c r="D183" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183" t="s">
+        <v>418</v>
+      </c>
+      <c r="F183" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>419</v>
+      </c>
+      <c r="B184" t="s">
+        <v>420</v>
+      </c>
+      <c r="C184" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184" t="s">
+        <v>421</v>
+      </c>
+      <c r="F184" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
+        <v>423</v>
+      </c>
+      <c r="B185" t="s">
+        <v>424</v>
+      </c>
+      <c r="C185" t="s">
+        <v>2</v>
+      </c>
+      <c r="D185" t="s">
+        <v>10</v>
+      </c>
+      <c r="E185" t="s">
+        <v>421</v>
+      </c>
+      <c r="F185" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" t="s">
+        <v>425</v>
+      </c>
+      <c r="B186" t="s">
+        <v>426</v>
+      </c>
+      <c r="C186" t="s">
+        <v>2</v>
+      </c>
+      <c r="D186" t="s">
+        <v>10</v>
+      </c>
+      <c r="E186" t="s">
+        <v>421</v>
+      </c>
+      <c r="F186" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
+        <v>427</v>
+      </c>
+      <c r="B187" t="s">
+        <v>428</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2</v>
+      </c>
+      <c r="D187" t="s">
+        <v>429</v>
+      </c>
+      <c r="E187" t="s">
+        <v>430</v>
+      </c>
+      <c r="F187" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
+        <v>431</v>
+      </c>
+      <c r="B188" t="s">
+        <v>432</v>
+      </c>
+      <c r="C188" t="s">
+        <v>2</v>
+      </c>
+      <c r="D188" t="s">
+        <v>233</v>
+      </c>
+      <c r="E188" t="s">
+        <v>433</v>
+      </c>
+      <c r="F188" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>434</v>
+      </c>
+      <c r="B189" t="s">
+        <v>435</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189" t="s">
+        <v>436</v>
+      </c>
+      <c r="E189" t="s">
+        <v>437</v>
+      </c>
+      <c r="F189" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
+        <v>438</v>
+      </c>
+      <c r="B190" t="s">
+        <v>439</v>
+      </c>
+      <c r="C190" t="s">
+        <v>2</v>
+      </c>
+      <c r="D190" t="s">
+        <v>10</v>
+      </c>
+      <c r="E190" t="s">
+        <v>440</v>
+      </c>
+      <c r="F190" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
+        <v>441</v>
+      </c>
+      <c r="B191" t="s">
+        <v>442</v>
+      </c>
+      <c r="C191" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191" t="s">
+        <v>443</v>
+      </c>
+      <c r="E191" t="s">
+        <v>444</v>
+      </c>
+      <c r="F191" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>445</v>
+      </c>
+      <c r="B192" t="s">
+        <v>446</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192" t="s">
+        <v>400</v>
+      </c>
+      <c r="E192" t="s">
+        <v>437</v>
+      </c>
+      <c r="F192" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="s">
+        <v>447</v>
+      </c>
+      <c r="B193" t="s">
+        <v>448</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193" t="s">
+        <v>436</v>
+      </c>
+      <c r="E193" t="s">
+        <v>449</v>
+      </c>
+      <c r="F193" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="s">
+        <v>450</v>
+      </c>
+      <c r="B194" t="s">
+        <v>451</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194" t="s">
+        <v>280</v>
+      </c>
+      <c r="E194" t="s">
+        <v>452</v>
+      </c>
+      <c r="F194" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
+        <v>453</v>
+      </c>
+      <c r="B195" t="s">
+        <v>454</v>
+      </c>
+      <c r="C195" t="s">
+        <v>2</v>
+      </c>
+      <c r="D195" t="s">
+        <v>10</v>
+      </c>
+      <c r="E195" t="s">
+        <v>455</v>
+      </c>
+      <c r="F195" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" t="s">
+        <v>456</v>
+      </c>
+      <c r="B196" t="s">
+        <v>457</v>
+      </c>
+      <c r="C196" t="s">
+        <v>2</v>
+      </c>
+      <c r="D196" t="s">
+        <v>10</v>
+      </c>
+      <c r="E196" t="s">
+        <v>458</v>
+      </c>
+      <c r="F196" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="s">
+        <v>459</v>
+      </c>
+      <c r="B197" t="s">
+        <v>460</v>
+      </c>
+      <c r="C197" t="s">
+        <v>2</v>
+      </c>
+      <c r="D197" t="s">
+        <v>10</v>
+      </c>
+      <c r="E197" t="s">
+        <v>458</v>
+      </c>
+      <c r="F197" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="s">
+        <v>461</v>
+      </c>
+      <c r="B198" t="s">
+        <v>462</v>
+      </c>
+      <c r="C198" t="s">
+        <v>2</v>
+      </c>
+      <c r="D198" t="s">
+        <v>436</v>
+      </c>
+      <c r="E198" t="s">
+        <v>463</v>
+      </c>
+      <c r="F198" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="s">
+        <v>465</v>
+      </c>
+      <c r="B199" t="s">
+        <v>466</v>
+      </c>
+      <c r="C199" t="s">
+        <v>2</v>
+      </c>
+      <c r="D199" t="s">
+        <v>10</v>
+      </c>
+      <c r="E199" t="s">
+        <v>467</v>
+      </c>
+      <c r="F199" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" t="s">
+        <v>469</v>
+      </c>
+      <c r="B200" t="s">
+        <v>470</v>
+      </c>
+      <c r="C200" t="s">
+        <v>2</v>
+      </c>
+      <c r="D200" t="s">
+        <v>10</v>
+      </c>
+      <c r="E200" t="s">
+        <v>471</v>
+      </c>
+      <c r="F200" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="s">
+        <v>472</v>
+      </c>
+      <c r="B201" t="s">
+        <v>473</v>
+      </c>
+      <c r="C201" t="s">
+        <v>2</v>
+      </c>
+      <c r="D201" t="s">
+        <v>300</v>
+      </c>
+      <c r="E201" t="s">
+        <v>474</v>
+      </c>
+      <c r="F201" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" t="s">
+        <v>475</v>
+      </c>
+      <c r="B202" t="s">
+        <v>476</v>
+      </c>
+      <c r="C202" t="s">
+        <v>2</v>
+      </c>
+      <c r="D202" t="s">
+        <v>477</v>
+      </c>
+      <c r="E202" t="s">
+        <v>478</v>
+      </c>
+      <c r="F202" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/200PE_V7/New_Score.xlsx
+++ b/200PE_V7/New_Score.xlsx
@@ -1782,13 +1782,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F202"/>
+  <dimension ref="A1:I202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1805,10 +1805,19 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1827,8 +1836,17 @@
       <c r="F3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1847,8 +1865,17 @@
       <c r="F4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1867,8 +1894,17 @@
       <c r="F5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1887,8 +1923,17 @@
       <c r="F6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1907,8 +1952,17 @@
       <c r="F7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1927,8 +1981,17 @@
       <c r="F8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1947,8 +2010,17 @@
       <c r="F9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1967,8 +2039,17 @@
       <c r="F10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1987,8 +2068,17 @@
       <c r="F11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2007,8 +2097,17 @@
       <c r="F12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2027,8 +2126,17 @@
       <c r="F13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2047,8 +2155,17 @@
       <c r="F14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2067,8 +2184,17 @@
       <c r="F15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2087,8 +2213,17 @@
       <c r="F16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2107,8 +2242,17 @@
       <c r="F17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -2127,8 +2271,17 @@
       <c r="F18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2147,8 +2300,17 @@
       <c r="F19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -2167,8 +2329,17 @@
       <c r="F20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -2187,8 +2358,17 @@
       <c r="F21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -2207,8 +2387,17 @@
       <c r="F22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2227,8 +2416,17 @@
       <c r="F23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -2247,8 +2445,17 @@
       <c r="F24" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -2267,8 +2474,17 @@
       <c r="F25" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2287,8 +2503,17 @@
       <c r="F26" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2307,8 +2532,17 @@
       <c r="F27" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -2327,8 +2561,17 @@
       <c r="F28" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -2347,8 +2590,17 @@
       <c r="F29" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -2367,8 +2619,17 @@
       <c r="F30" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -2387,8 +2648,17 @@
       <c r="F31" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -2407,8 +2677,17 @@
       <c r="F32" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -2427,8 +2706,17 @@
       <c r="F33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -2447,8 +2735,17 @@
       <c r="F34" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -2467,8 +2764,17 @@
       <c r="F35" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -2487,8 +2793,17 @@
       <c r="F36" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -2507,8 +2822,17 @@
       <c r="F37" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -2527,8 +2851,17 @@
       <c r="F38" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -2547,8 +2880,17 @@
       <c r="F39" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -2567,8 +2909,17 @@
       <c r="F40" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -2587,8 +2938,17 @@
       <c r="F41" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -2607,8 +2967,17 @@
       <c r="F42" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -2627,8 +2996,17 @@
       <c r="F43" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -2647,8 +3025,17 @@
       <c r="F44" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -2667,8 +3054,17 @@
       <c r="F45" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -2687,8 +3083,17 @@
       <c r="F46" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -2707,8 +3112,17 @@
       <c r="F47" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -2727,8 +3141,17 @@
       <c r="F48" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -2747,8 +3170,17 @@
       <c r="F49" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -2767,8 +3199,17 @@
       <c r="F50" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -2787,8 +3228,17 @@
       <c r="F51" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -2807,8 +3257,17 @@
       <c r="F52" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -2827,8 +3286,17 @@
       <c r="F53" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -2847,8 +3315,17 @@
       <c r="F54" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3344,17 @@
       <c r="F55" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -2887,8 +3373,17 @@
       <c r="F56" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -2907,8 +3402,17 @@
       <c r="F57" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -2927,8 +3431,17 @@
       <c r="F58" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -2947,8 +3460,17 @@
       <c r="F59" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -2967,8 +3489,17 @@
       <c r="F60" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -2987,8 +3518,17 @@
       <c r="F61" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -3007,8 +3547,17 @@
       <c r="F62" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -3027,8 +3576,17 @@
       <c r="F63" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -3047,8 +3605,17 @@
       <c r="F64" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -3067,8 +3634,17 @@
       <c r="F65" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" t="s">
+        <v>10</v>
+      </c>
+      <c r="I65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -3087,8 +3663,17 @@
       <c r="F66" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -3107,8 +3692,17 @@
       <c r="F67" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>75</v>
       </c>
@@ -3127,8 +3721,17 @@
       <c r="F68" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" t="s">
+        <v>10</v>
+      </c>
+      <c r="I68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -3147,8 +3750,17 @@
       <c r="F69" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -3167,8 +3779,17 @@
       <c r="F70" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70" t="s">
+        <v>10</v>
+      </c>
+      <c r="H70" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>78</v>
       </c>
@@ -3187,8 +3808,17 @@
       <c r="F71" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -3207,8 +3837,17 @@
       <c r="F72" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>80</v>
       </c>
@@ -3227,8 +3866,17 @@
       <c r="F73" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73" t="s">
+        <v>10</v>
+      </c>
+      <c r="H73" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -3247,8 +3895,17 @@
       <c r="F74" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -3267,8 +3924,17 @@
       <c r="F75" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75" t="s">
+        <v>10</v>
+      </c>
+      <c r="I75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -3287,8 +3953,17 @@
       <c r="F76" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>84</v>
       </c>
@@ -3307,8 +3982,17 @@
       <c r="F77" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>85</v>
       </c>
@@ -3325,10 +4009,19 @@
         <v>87</v>
       </c>
       <c r="F78" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>88</v>
+      </c>
+      <c r="G78" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" t="s">
+        <v>10</v>
+      </c>
+      <c r="I78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>89</v>
       </c>
@@ -3347,8 +4040,17 @@
       <c r="F79" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79" t="s">
+        <v>90</v>
+      </c>
+      <c r="H79" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>91</v>
       </c>
@@ -3365,10 +4067,19 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" t="s">
+        <v>10</v>
+      </c>
+      <c r="I80" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>92</v>
       </c>
@@ -3387,8 +4098,17 @@
       <c r="F81" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81" t="s">
+        <v>90</v>
+      </c>
+      <c r="H81" t="s">
+        <v>10</v>
+      </c>
+      <c r="I81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>93</v>
       </c>
@@ -3407,8 +4127,17 @@
       <c r="F82" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82" t="s">
+        <v>90</v>
+      </c>
+      <c r="H82" t="s">
+        <v>10</v>
+      </c>
+      <c r="I82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>94</v>
       </c>
@@ -3427,8 +4156,17 @@
       <c r="F83" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="G83" t="s">
+        <v>90</v>
+      </c>
+      <c r="H83" t="s">
+        <v>10</v>
+      </c>
+      <c r="I83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>95</v>
       </c>
@@ -3447,8 +4185,17 @@
       <c r="F84" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84" t="s">
+        <v>90</v>
+      </c>
+      <c r="H84" t="s">
+        <v>10</v>
+      </c>
+      <c r="I84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>96</v>
       </c>
@@ -3467,8 +4214,17 @@
       <c r="F85" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="G85" t="s">
+        <v>90</v>
+      </c>
+      <c r="H85" t="s">
+        <v>10</v>
+      </c>
+      <c r="I85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>97</v>
       </c>
@@ -3487,8 +4243,17 @@
       <c r="F86" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86" t="s">
+        <v>90</v>
+      </c>
+      <c r="H86" t="s">
+        <v>10</v>
+      </c>
+      <c r="I86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -3505,10 +4270,19 @@
         <v>102</v>
       </c>
       <c r="F87" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G87" t="s">
+        <v>10</v>
+      </c>
+      <c r="H87" t="s">
+        <v>10</v>
+      </c>
+      <c r="I87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>104</v>
       </c>
@@ -3525,10 +4299,19 @@
         <v>106</v>
       </c>
       <c r="F88" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>107</v>
+      </c>
+      <c r="G88" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" t="s">
+        <v>10</v>
+      </c>
+      <c r="I88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>108</v>
       </c>
@@ -3545,10 +4328,19 @@
         <v>110</v>
       </c>
       <c r="F89" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>111</v>
+      </c>
+      <c r="G89" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>112</v>
       </c>
@@ -3565,10 +4357,19 @@
         <v>114</v>
       </c>
       <c r="F90" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>107</v>
+      </c>
+      <c r="G90" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" t="s">
+        <v>10</v>
+      </c>
+      <c r="I90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>115</v>
       </c>
@@ -3585,10 +4386,19 @@
         <v>117</v>
       </c>
       <c r="F91" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>118</v>
+      </c>
+      <c r="G91" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>119</v>
       </c>
@@ -3605,10 +4415,19 @@
         <v>117</v>
       </c>
       <c r="F92" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>118</v>
+      </c>
+      <c r="G92" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" t="s">
+        <v>10</v>
+      </c>
+      <c r="I92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>120</v>
       </c>
@@ -3625,10 +4444,19 @@
         <v>122</v>
       </c>
       <c r="F93" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>107</v>
+      </c>
+      <c r="G93" t="s">
+        <v>10</v>
+      </c>
+      <c r="H93" t="s">
+        <v>10</v>
+      </c>
+      <c r="I93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>123</v>
       </c>
@@ -3645,10 +4473,19 @@
         <v>122</v>
       </c>
       <c r="F94" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>107</v>
+      </c>
+      <c r="G94" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>124</v>
       </c>
@@ -3665,10 +4502,19 @@
         <v>126</v>
       </c>
       <c r="F95" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>127</v>
+      </c>
+      <c r="G95" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95" t="s">
+        <v>10</v>
+      </c>
+      <c r="I95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>128</v>
       </c>
@@ -3685,10 +4531,19 @@
         <v>126</v>
       </c>
       <c r="F96" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>107</v>
+      </c>
+      <c r="G96" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" t="s">
+        <v>10</v>
+      </c>
+      <c r="I96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>130</v>
       </c>
@@ -3705,10 +4560,19 @@
         <v>132</v>
       </c>
       <c r="F97" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>133</v>
+      </c>
+      <c r="G97" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" t="s">
+        <v>10</v>
+      </c>
+      <c r="I97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>134</v>
       </c>
@@ -3725,10 +4589,19 @@
         <v>136</v>
       </c>
       <c r="F98" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>137</v>
+      </c>
+      <c r="G98" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" t="s">
+        <v>10</v>
+      </c>
+      <c r="I98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>138</v>
       </c>
@@ -3745,10 +4618,19 @@
         <v>140</v>
       </c>
       <c r="F99" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G99" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" t="s">
+        <v>10</v>
+      </c>
+      <c r="I99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>141</v>
       </c>
@@ -3767,8 +4649,17 @@
       <c r="F100" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100" t="s">
+        <v>90</v>
+      </c>
+      <c r="H100" t="s">
+        <v>143</v>
+      </c>
+      <c r="I100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>144</v>
       </c>
@@ -3787,8 +4678,17 @@
       <c r="F101" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101" t="s">
+        <v>90</v>
+      </c>
+      <c r="H101" t="s">
+        <v>143</v>
+      </c>
+      <c r="I101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>145</v>
       </c>
@@ -3805,10 +4705,19 @@
         <v>147</v>
       </c>
       <c r="F102" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>111</v>
+      </c>
+      <c r="G102" t="s">
+        <v>10</v>
+      </c>
+      <c r="H102" t="s">
+        <v>10</v>
+      </c>
+      <c r="I102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>148</v>
       </c>
@@ -3827,8 +4736,17 @@
       <c r="F103" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103" t="s">
+        <v>90</v>
+      </c>
+      <c r="H103" t="s">
+        <v>150</v>
+      </c>
+      <c r="I103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>151</v>
       </c>
@@ -3845,10 +4763,19 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>88</v>
+      </c>
+      <c r="G104" t="s">
+        <v>90</v>
+      </c>
+      <c r="H104" t="s">
+        <v>153</v>
+      </c>
+      <c r="I104" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>154</v>
       </c>
@@ -3865,10 +4792,19 @@
         <v>147</v>
       </c>
       <c r="F105" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>156</v>
+      </c>
+      <c r="G105" t="s">
+        <v>10</v>
+      </c>
+      <c r="H105" t="s">
+        <v>10</v>
+      </c>
+      <c r="I105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>157</v>
       </c>
@@ -3885,10 +4821,19 @@
         <v>159</v>
       </c>
       <c r="F106" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>160</v>
+      </c>
+      <c r="G106" t="s">
+        <v>10</v>
+      </c>
+      <c r="H106" t="s">
+        <v>10</v>
+      </c>
+      <c r="I106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>161</v>
       </c>
@@ -3907,8 +4852,17 @@
       <c r="F107" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="G107" t="s">
+        <v>90</v>
+      </c>
+      <c r="H107" t="s">
+        <v>163</v>
+      </c>
+      <c r="I107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>164</v>
       </c>
@@ -3925,10 +4879,19 @@
         <v>166</v>
       </c>
       <c r="F108" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>167</v>
+      </c>
+      <c r="G108" t="s">
+        <v>10</v>
+      </c>
+      <c r="H108" t="s">
+        <v>10</v>
+      </c>
+      <c r="I108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>168</v>
       </c>
@@ -3945,10 +4908,19 @@
         <v>170</v>
       </c>
       <c r="F109" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>171</v>
+      </c>
+      <c r="G109" t="s">
+        <v>10</v>
+      </c>
+      <c r="H109" t="s">
+        <v>10</v>
+      </c>
+      <c r="I109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>172</v>
       </c>
@@ -3965,10 +4937,19 @@
         <v>174</v>
       </c>
       <c r="F110" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>133</v>
+      </c>
+      <c r="G110" t="s">
+        <v>10</v>
+      </c>
+      <c r="H110" t="s">
+        <v>10</v>
+      </c>
+      <c r="I110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>175</v>
       </c>
@@ -3985,10 +4966,19 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G111" t="s">
+        <v>90</v>
+      </c>
+      <c r="H111" t="s">
+        <v>177</v>
+      </c>
+      <c r="I111" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>178</v>
       </c>
@@ -4007,8 +4997,17 @@
       <c r="F112" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="G112" t="s">
+        <v>90</v>
+      </c>
+      <c r="H112" t="s">
+        <v>180</v>
+      </c>
+      <c r="I112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>181</v>
       </c>
@@ -4025,10 +5024,19 @@
         <v>183</v>
       </c>
       <c r="F113" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>184</v>
+      </c>
+      <c r="G113" t="s">
+        <v>10</v>
+      </c>
+      <c r="H113" t="s">
+        <v>10</v>
+      </c>
+      <c r="I113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>185</v>
       </c>
@@ -4045,10 +5053,19 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="G114" t="s">
+        <v>90</v>
+      </c>
+      <c r="H114" t="s">
+        <v>143</v>
+      </c>
+      <c r="I114" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>188</v>
       </c>
@@ -4065,10 +5082,19 @@
         <v>190</v>
       </c>
       <c r="F115" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>88</v>
+      </c>
+      <c r="G115" t="s">
+        <v>90</v>
+      </c>
+      <c r="H115" t="s">
+        <v>191</v>
+      </c>
+      <c r="I115" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>192</v>
       </c>
@@ -4085,10 +5111,19 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G116" t="s">
+        <v>90</v>
+      </c>
+      <c r="H116" t="s">
+        <v>194</v>
+      </c>
+      <c r="I116" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>195</v>
       </c>
@@ -4105,10 +5140,19 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G117" t="s">
+        <v>90</v>
+      </c>
+      <c r="H117" t="s">
+        <v>198</v>
+      </c>
+      <c r="I117" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>199</v>
       </c>
@@ -4125,10 +5169,19 @@
         <v>201</v>
       </c>
       <c r="F118" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>202</v>
+      </c>
+      <c r="G118" t="s">
+        <v>10</v>
+      </c>
+      <c r="H118" t="s">
+        <v>10</v>
+      </c>
+      <c r="I118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>203</v>
       </c>
@@ -4145,10 +5198,19 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>88</v>
+      </c>
+      <c r="G119" t="s">
+        <v>90</v>
+      </c>
+      <c r="H119" t="s">
+        <v>205</v>
+      </c>
+      <c r="I119" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>206</v>
       </c>
@@ -4165,10 +5227,19 @@
         <v>208</v>
       </c>
       <c r="F120" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>209</v>
+      </c>
+      <c r="G120" t="s">
+        <v>10</v>
+      </c>
+      <c r="H120" t="s">
+        <v>10</v>
+      </c>
+      <c r="I120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>210</v>
       </c>
@@ -4185,10 +5256,19 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G121" t="s">
+        <v>90</v>
+      </c>
+      <c r="H121" t="s">
+        <v>212</v>
+      </c>
+      <c r="I121" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>213</v>
       </c>
@@ -4205,10 +5285,19 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>215</v>
+      </c>
+      <c r="G122" t="s">
+        <v>90</v>
+      </c>
+      <c r="H122" t="s">
+        <v>216</v>
+      </c>
+      <c r="I122" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>217</v>
       </c>
@@ -4225,10 +5314,19 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G123" t="s">
+        <v>90</v>
+      </c>
+      <c r="H123" t="s">
+        <v>219</v>
+      </c>
+      <c r="I123" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>220</v>
       </c>
@@ -4245,10 +5343,19 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+        <v>222</v>
+      </c>
+      <c r="G124" t="s">
+        <v>90</v>
+      </c>
+      <c r="H124" t="s">
+        <v>223</v>
+      </c>
+      <c r="I124" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>224</v>
       </c>
@@ -4265,10 +5372,19 @@
         <v>226</v>
       </c>
       <c r="F125" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>227</v>
+      </c>
+      <c r="G125" t="s">
+        <v>10</v>
+      </c>
+      <c r="H125" t="s">
+        <v>10</v>
+      </c>
+      <c r="I125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>228</v>
       </c>
@@ -4285,10 +5401,19 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G126" t="s">
+        <v>90</v>
+      </c>
+      <c r="H126" t="s">
+        <v>230</v>
+      </c>
+      <c r="I126" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>231</v>
       </c>
@@ -4305,10 +5430,19 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+        <v>167</v>
+      </c>
+      <c r="G127" t="s">
+        <v>90</v>
+      </c>
+      <c r="H127" t="s">
+        <v>234</v>
+      </c>
+      <c r="I127" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>235</v>
       </c>
@@ -4325,10 +5459,19 @@
         <v>106</v>
       </c>
       <c r="F128" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>127</v>
+      </c>
+      <c r="G128" t="s">
+        <v>90</v>
+      </c>
+      <c r="H128" t="s">
+        <v>237</v>
+      </c>
+      <c r="I128" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>238</v>
       </c>
@@ -4345,10 +5488,19 @@
         <v>106</v>
       </c>
       <c r="F129" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G129" t="s">
+        <v>90</v>
+      </c>
+      <c r="H129" t="s">
+        <v>216</v>
+      </c>
+      <c r="I129" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>240</v>
       </c>
@@ -4365,10 +5517,19 @@
         <v>242</v>
       </c>
       <c r="F130" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>88</v>
+      </c>
+      <c r="G130" t="s">
+        <v>90</v>
+      </c>
+      <c r="H130" t="s">
+        <v>216</v>
+      </c>
+      <c r="I130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>243</v>
       </c>
@@ -4385,10 +5546,19 @@
         <v>245</v>
       </c>
       <c r="F131" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>88</v>
+      </c>
+      <c r="G131" t="s">
+        <v>90</v>
+      </c>
+      <c r="H131" t="s">
+        <v>198</v>
+      </c>
+      <c r="I131" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>246</v>
       </c>
@@ -4405,10 +5575,19 @@
         <v>248</v>
       </c>
       <c r="F132" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G132" t="s">
+        <v>90</v>
+      </c>
+      <c r="H132" t="s">
+        <v>249</v>
+      </c>
+      <c r="I132" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>250</v>
       </c>
@@ -4425,10 +5604,19 @@
         <v>252</v>
       </c>
       <c r="F133" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>253</v>
+      </c>
+      <c r="G133" t="s">
+        <v>90</v>
+      </c>
+      <c r="H133" t="s">
+        <v>234</v>
+      </c>
+      <c r="I133" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>254</v>
       </c>
@@ -4445,10 +5633,19 @@
         <v>256</v>
       </c>
       <c r="F134" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G134" t="s">
+        <v>90</v>
+      </c>
+      <c r="H134" t="s">
+        <v>257</v>
+      </c>
+      <c r="I134" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>258</v>
       </c>
@@ -4465,10 +5662,19 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>261</v>
+      </c>
+      <c r="G135" t="s">
+        <v>90</v>
+      </c>
+      <c r="H135" t="s">
+        <v>162</v>
+      </c>
+      <c r="I135" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>262</v>
       </c>
@@ -4485,10 +5691,19 @@
         <v>264</v>
       </c>
       <c r="F136" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+        <v>265</v>
+      </c>
+      <c r="G136" t="s">
+        <v>10</v>
+      </c>
+      <c r="H136" t="s">
+        <v>10</v>
+      </c>
+      <c r="I136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>266</v>
       </c>
@@ -4505,10 +5720,19 @@
         <v>268</v>
       </c>
       <c r="F137" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G137" t="s">
+        <v>90</v>
+      </c>
+      <c r="H137" t="s">
+        <v>269</v>
+      </c>
+      <c r="I137" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>270</v>
       </c>
@@ -4525,10 +5749,19 @@
         <v>272</v>
       </c>
       <c r="F138" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+        <v>273</v>
+      </c>
+      <c r="G138" t="s">
+        <v>90</v>
+      </c>
+      <c r="H138" t="s">
+        <v>150</v>
+      </c>
+      <c r="I138" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>274</v>
       </c>
@@ -4545,10 +5778,19 @@
         <v>276</v>
       </c>
       <c r="F139" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G139" t="s">
+        <v>90</v>
+      </c>
+      <c r="H139" t="s">
+        <v>269</v>
+      </c>
+      <c r="I139" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
         <v>277</v>
       </c>
@@ -4565,10 +5807,19 @@
         <v>280</v>
       </c>
       <c r="F140" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+        <v>281</v>
+      </c>
+      <c r="G140" t="s">
+        <v>90</v>
+      </c>
+      <c r="H140" t="s">
+        <v>282</v>
+      </c>
+      <c r="I140" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>283</v>
       </c>
@@ -4585,10 +5836,19 @@
         <v>285</v>
       </c>
       <c r="F141" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G141" t="s">
+        <v>90</v>
+      </c>
+      <c r="H141" t="s">
+        <v>180</v>
+      </c>
+      <c r="I141" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>286</v>
       </c>
@@ -4605,10 +5865,19 @@
         <v>288</v>
       </c>
       <c r="F142" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G142" t="s">
+        <v>90</v>
+      </c>
+      <c r="H142" t="s">
+        <v>249</v>
+      </c>
+      <c r="I142" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>289</v>
       </c>
@@ -4625,10 +5894,19 @@
         <v>292</v>
       </c>
       <c r="F143" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+        <v>293</v>
+      </c>
+      <c r="G143" t="s">
+        <v>90</v>
+      </c>
+      <c r="H143" t="s">
+        <v>230</v>
+      </c>
+      <c r="I143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>294</v>
       </c>
@@ -4645,10 +5923,19 @@
         <v>296</v>
       </c>
       <c r="F144" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+        <v>261</v>
+      </c>
+      <c r="G144" t="s">
+        <v>90</v>
+      </c>
+      <c r="H144" t="s">
+        <v>297</v>
+      </c>
+      <c r="I144" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>298</v>
       </c>
@@ -4665,10 +5952,19 @@
         <v>292</v>
       </c>
       <c r="F145" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+        <v>293</v>
+      </c>
+      <c r="G145" t="s">
+        <v>90</v>
+      </c>
+      <c r="H145" t="s">
+        <v>301</v>
+      </c>
+      <c r="I145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>302</v>
       </c>
@@ -4685,10 +5981,19 @@
         <v>304</v>
       </c>
       <c r="F146" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G146" t="s">
+        <v>90</v>
+      </c>
+      <c r="H146" t="s">
+        <v>301</v>
+      </c>
+      <c r="I146" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>305</v>
       </c>
@@ -4705,10 +6010,19 @@
         <v>308</v>
       </c>
       <c r="F147" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G147" t="s">
+        <v>90</v>
+      </c>
+      <c r="H147" t="s">
+        <v>223</v>
+      </c>
+      <c r="I147" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
         <v>310</v>
       </c>
@@ -4725,10 +6039,19 @@
         <v>312</v>
       </c>
       <c r="F148" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+        <v>265</v>
+      </c>
+      <c r="G148" t="s">
+        <v>90</v>
+      </c>
+      <c r="H148" t="s">
+        <v>142</v>
+      </c>
+      <c r="I148" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
         <v>313</v>
       </c>
@@ -4745,10 +6068,19 @@
         <v>316</v>
       </c>
       <c r="F149" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G149" t="s">
+        <v>90</v>
+      </c>
+      <c r="H149" t="s">
+        <v>180</v>
+      </c>
+      <c r="I149" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
         <v>317</v>
       </c>
@@ -4765,10 +6097,19 @@
         <v>319</v>
       </c>
       <c r="F150" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G150" t="s">
+        <v>90</v>
+      </c>
+      <c r="H150" t="s">
+        <v>320</v>
+      </c>
+      <c r="I150" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
         <v>321</v>
       </c>
@@ -4785,10 +6126,19 @@
         <v>312</v>
       </c>
       <c r="F151" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+        <v>265</v>
+      </c>
+      <c r="G151" t="s">
+        <v>90</v>
+      </c>
+      <c r="H151" t="s">
+        <v>323</v>
+      </c>
+      <c r="I151" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
         <v>324</v>
       </c>
@@ -4805,10 +6155,19 @@
         <v>312</v>
       </c>
       <c r="F152" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
+        <v>265</v>
+      </c>
+      <c r="G152" t="s">
+        <v>90</v>
+      </c>
+      <c r="H152" t="s">
+        <v>326</v>
+      </c>
+      <c r="I152" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
         <v>327</v>
       </c>
@@ -4825,10 +6184,19 @@
         <v>308</v>
       </c>
       <c r="F153" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G153" t="s">
+        <v>90</v>
+      </c>
+      <c r="H153" t="s">
+        <v>180</v>
+      </c>
+      <c r="I153" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
         <v>329</v>
       </c>
@@ -4845,10 +6213,19 @@
         <v>312</v>
       </c>
       <c r="F154" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
+        <v>331</v>
+      </c>
+      <c r="G154" t="s">
+        <v>90</v>
+      </c>
+      <c r="H154" t="s">
+        <v>326</v>
+      </c>
+      <c r="I154" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
         <v>332</v>
       </c>
@@ -4865,10 +6242,19 @@
         <v>292</v>
       </c>
       <c r="F155" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G155" t="s">
+        <v>90</v>
+      </c>
+      <c r="H155" t="s">
+        <v>334</v>
+      </c>
+      <c r="I155" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
         <v>335</v>
       </c>
@@ -4885,10 +6271,19 @@
         <v>312</v>
       </c>
       <c r="F156" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
+        <v>331</v>
+      </c>
+      <c r="G156" t="s">
+        <v>90</v>
+      </c>
+      <c r="H156" t="s">
+        <v>162</v>
+      </c>
+      <c r="I156" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
         <v>337</v>
       </c>
@@ -4905,10 +6300,19 @@
         <v>312</v>
       </c>
       <c r="F157" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
+        <v>265</v>
+      </c>
+      <c r="G157" t="s">
+        <v>90</v>
+      </c>
+      <c r="H157" t="s">
+        <v>323</v>
+      </c>
+      <c r="I157" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
         <v>340</v>
       </c>
@@ -4925,10 +6329,19 @@
         <v>312</v>
       </c>
       <c r="F158" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
+        <v>265</v>
+      </c>
+      <c r="G158" t="s">
+        <v>90</v>
+      </c>
+      <c r="H158" t="s">
+        <v>323</v>
+      </c>
+      <c r="I158" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
         <v>342</v>
       </c>
@@ -4945,10 +6358,19 @@
         <v>166</v>
       </c>
       <c r="F159" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
+        <v>344</v>
+      </c>
+      <c r="G159" t="s">
+        <v>90</v>
+      </c>
+      <c r="H159" t="s">
+        <v>323</v>
+      </c>
+      <c r="I159" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
         <v>345</v>
       </c>
@@ -4965,10 +6387,19 @@
         <v>308</v>
       </c>
       <c r="F160" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
+        <v>348</v>
+      </c>
+      <c r="G160" t="s">
+        <v>90</v>
+      </c>
+      <c r="H160" t="s">
+        <v>234</v>
+      </c>
+      <c r="I160" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
         <v>349</v>
       </c>
@@ -4985,10 +6416,19 @@
         <v>352</v>
       </c>
       <c r="F161" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
+        <v>265</v>
+      </c>
+      <c r="G161" t="s">
+        <v>90</v>
+      </c>
+      <c r="H161" t="s">
+        <v>301</v>
+      </c>
+      <c r="I161" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
         <v>353</v>
       </c>
@@ -5005,10 +6445,19 @@
         <v>352</v>
       </c>
       <c r="F162" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
+        <v>265</v>
+      </c>
+      <c r="G162" t="s">
+        <v>90</v>
+      </c>
+      <c r="H162" t="s">
+        <v>323</v>
+      </c>
+      <c r="I162" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
         <v>355</v>
       </c>
@@ -5025,10 +6474,19 @@
         <v>292</v>
       </c>
       <c r="F163" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
+        <v>358</v>
+      </c>
+      <c r="G163" t="s">
+        <v>90</v>
+      </c>
+      <c r="H163" t="s">
+        <v>180</v>
+      </c>
+      <c r="I163" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
         <v>359</v>
       </c>
@@ -5045,10 +6503,19 @@
         <v>308</v>
       </c>
       <c r="F164" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G164" t="s">
+        <v>90</v>
+      </c>
+      <c r="H164" t="s">
+        <v>249</v>
+      </c>
+      <c r="I164" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
         <v>361</v>
       </c>
@@ -5065,10 +6532,19 @@
         <v>363</v>
       </c>
       <c r="F165" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G165" t="s">
+        <v>90</v>
+      </c>
+      <c r="H165" t="s">
+        <v>234</v>
+      </c>
+      <c r="I165" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
         <v>364</v>
       </c>
@@ -5085,10 +6561,19 @@
         <v>366</v>
       </c>
       <c r="F166" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
+        <v>367</v>
+      </c>
+      <c r="G166" t="s">
+        <v>90</v>
+      </c>
+      <c r="H166" t="s">
+        <v>237</v>
+      </c>
+      <c r="I166" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
         <v>368</v>
       </c>
@@ -5105,10 +6590,19 @@
         <v>370</v>
       </c>
       <c r="F167" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G167" t="s">
+        <v>90</v>
+      </c>
+      <c r="H167" t="s">
+        <v>149</v>
+      </c>
+      <c r="I167" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
         <v>371</v>
       </c>
@@ -5125,10 +6619,19 @@
         <v>373</v>
       </c>
       <c r="F168" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G168" t="s">
+        <v>90</v>
+      </c>
+      <c r="H168" t="s">
+        <v>219</v>
+      </c>
+      <c r="I168" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
         <v>374</v>
       </c>
@@ -5145,10 +6648,19 @@
         <v>373</v>
       </c>
       <c r="F169" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G169" t="s">
+        <v>90</v>
+      </c>
+      <c r="H169" t="s">
+        <v>219</v>
+      </c>
+      <c r="I169" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" t="s">
         <v>375</v>
       </c>
@@ -5165,10 +6677,19 @@
         <v>373</v>
       </c>
       <c r="F170" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G170" t="s">
+        <v>90</v>
+      </c>
+      <c r="H170" t="s">
+        <v>269</v>
+      </c>
+      <c r="I170" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
         <v>377</v>
       </c>
@@ -5185,10 +6706,19 @@
         <v>379</v>
       </c>
       <c r="F171" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G171" t="s">
+        <v>90</v>
+      </c>
+      <c r="H171" t="s">
+        <v>334</v>
+      </c>
+      <c r="I171" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
         <v>380</v>
       </c>
@@ -5205,10 +6735,19 @@
         <v>292</v>
       </c>
       <c r="F172" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
+        <v>383</v>
+      </c>
+      <c r="G172" t="s">
+        <v>90</v>
+      </c>
+      <c r="H172" t="s">
+        <v>142</v>
+      </c>
+      <c r="I172" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
         <v>384</v>
       </c>
@@ -5225,10 +6764,19 @@
         <v>386</v>
       </c>
       <c r="F173" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G173" t="s">
+        <v>90</v>
+      </c>
+      <c r="H173" t="s">
+        <v>334</v>
+      </c>
+      <c r="I173" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
         <v>387</v>
       </c>
@@ -5245,10 +6793,19 @@
         <v>308</v>
       </c>
       <c r="F174" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="G174" t="s">
+        <v>90</v>
+      </c>
+      <c r="H174" t="s">
+        <v>334</v>
+      </c>
+      <c r="I174" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
         <v>390</v>
       </c>
@@ -5265,10 +6822,19 @@
         <v>392</v>
       </c>
       <c r="F175" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
+        <v>265</v>
+      </c>
+      <c r="G175" t="s">
+        <v>90</v>
+      </c>
+      <c r="H175" t="s">
+        <v>142</v>
+      </c>
+      <c r="I175" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" t="s">
         <v>393</v>
       </c>
@@ -5285,10 +6851,19 @@
         <v>395</v>
       </c>
       <c r="F176" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G176" t="s">
+        <v>90</v>
+      </c>
+      <c r="H176" t="s">
+        <v>180</v>
+      </c>
+      <c r="I176" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
         <v>396</v>
       </c>
@@ -5305,10 +6880,19 @@
         <v>308</v>
       </c>
       <c r="F177" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="G177" t="s">
+        <v>90</v>
+      </c>
+      <c r="H177" t="s">
+        <v>230</v>
+      </c>
+      <c r="I177" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
         <v>398</v>
       </c>
@@ -5325,10 +6909,19 @@
         <v>401</v>
       </c>
       <c r="F178" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G178" t="s">
+        <v>90</v>
+      </c>
+      <c r="H178" t="s">
+        <v>230</v>
+      </c>
+      <c r="I178" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" t="s">
         <v>402</v>
       </c>
@@ -5345,10 +6938,19 @@
         <v>379</v>
       </c>
       <c r="F179" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
+        <v>405</v>
+      </c>
+      <c r="G179" t="s">
+        <v>90</v>
+      </c>
+      <c r="H179" t="s">
+        <v>205</v>
+      </c>
+      <c r="I179" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
         <v>406</v>
       </c>
@@ -5365,10 +6967,19 @@
         <v>409</v>
       </c>
       <c r="F180" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
+        <v>410</v>
+      </c>
+      <c r="G180" t="s">
+        <v>90</v>
+      </c>
+      <c r="H180" t="s">
+        <v>411</v>
+      </c>
+      <c r="I180" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
         <v>412</v>
       </c>
@@ -5385,10 +6996,19 @@
         <v>409</v>
       </c>
       <c r="F181" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
+        <v>410</v>
+      </c>
+      <c r="G181" t="s">
+        <v>90</v>
+      </c>
+      <c r="H181" t="s">
+        <v>216</v>
+      </c>
+      <c r="I181" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" t="s">
         <v>414</v>
       </c>
@@ -5405,10 +7025,19 @@
         <v>379</v>
       </c>
       <c r="F182" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
+        <v>405</v>
+      </c>
+      <c r="G182" t="s">
+        <v>90</v>
+      </c>
+      <c r="H182" t="s">
+        <v>142</v>
+      </c>
+      <c r="I182" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
         <v>416</v>
       </c>
@@ -5425,10 +7054,19 @@
         <v>418</v>
       </c>
       <c r="F183" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G183" t="s">
+        <v>90</v>
+      </c>
+      <c r="H183" t="s">
+        <v>323</v>
+      </c>
+      <c r="I183" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
         <v>419</v>
       </c>
@@ -5445,10 +7083,19 @@
         <v>421</v>
       </c>
       <c r="F184" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G184" t="s">
+        <v>90</v>
+      </c>
+      <c r="H184" t="s">
+        <v>422</v>
+      </c>
+      <c r="I184" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" t="s">
         <v>423</v>
       </c>
@@ -5465,10 +7112,19 @@
         <v>421</v>
       </c>
       <c r="F185" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G185" t="s">
+        <v>90</v>
+      </c>
+      <c r="H185" t="s">
+        <v>177</v>
+      </c>
+      <c r="I185" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
         <v>425</v>
       </c>
@@ -5485,10 +7141,19 @@
         <v>421</v>
       </c>
       <c r="F186" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G186" t="s">
+        <v>90</v>
+      </c>
+      <c r="H186" t="s">
+        <v>143</v>
+      </c>
+      <c r="I186" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
         <v>427</v>
       </c>
@@ -5505,10 +7170,19 @@
         <v>430</v>
       </c>
       <c r="F187" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G187" t="s">
+        <v>90</v>
+      </c>
+      <c r="H187" t="s">
+        <v>301</v>
+      </c>
+      <c r="I187" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" t="s">
         <v>431</v>
       </c>
@@ -5527,8 +7201,17 @@
       <c r="F188" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="189" spans="1:6">
+      <c r="G188" t="s">
+        <v>90</v>
+      </c>
+      <c r="H188" t="s">
+        <v>323</v>
+      </c>
+      <c r="I188" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
         <v>434</v>
       </c>
@@ -5545,10 +7228,19 @@
         <v>437</v>
       </c>
       <c r="F189" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G189" t="s">
+        <v>90</v>
+      </c>
+      <c r="H189" t="s">
+        <v>269</v>
+      </c>
+      <c r="I189" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
         <v>438</v>
       </c>
@@ -5565,10 +7257,19 @@
         <v>440</v>
       </c>
       <c r="F190" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G190" t="s">
+        <v>90</v>
+      </c>
+      <c r="H190" t="s">
+        <v>301</v>
+      </c>
+      <c r="I190" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" t="s">
         <v>441</v>
       </c>
@@ -5585,10 +7286,19 @@
         <v>444</v>
       </c>
       <c r="F191" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G191" t="s">
+        <v>90</v>
+      </c>
+      <c r="H191" t="s">
+        <v>301</v>
+      </c>
+      <c r="I191" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" t="s">
         <v>445</v>
       </c>
@@ -5605,10 +7315,19 @@
         <v>437</v>
       </c>
       <c r="F192" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G192" t="s">
+        <v>90</v>
+      </c>
+      <c r="H192" t="s">
+        <v>149</v>
+      </c>
+      <c r="I192" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
         <v>447</v>
       </c>
@@ -5625,10 +7344,19 @@
         <v>449</v>
       </c>
       <c r="F193" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G193" t="s">
+        <v>90</v>
+      </c>
+      <c r="H193" t="s">
+        <v>282</v>
+      </c>
+      <c r="I193" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" t="s">
         <v>450</v>
       </c>
@@ -5645,10 +7373,19 @@
         <v>452</v>
       </c>
       <c r="F194" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G194" t="s">
+        <v>90</v>
+      </c>
+      <c r="H194" t="s">
+        <v>282</v>
+      </c>
+      <c r="I194" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" t="s">
         <v>453</v>
       </c>
@@ -5665,10 +7402,19 @@
         <v>455</v>
       </c>
       <c r="F195" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G195" t="s">
+        <v>90</v>
+      </c>
+      <c r="H195" t="s">
+        <v>205</v>
+      </c>
+      <c r="I195" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
         <v>456</v>
       </c>
@@ -5685,10 +7431,19 @@
         <v>458</v>
       </c>
       <c r="F196" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G196" t="s">
+        <v>90</v>
+      </c>
+      <c r="H196" t="s">
+        <v>249</v>
+      </c>
+      <c r="I196" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" t="s">
         <v>459</v>
       </c>
@@ -5705,10 +7460,19 @@
         <v>458</v>
       </c>
       <c r="F197" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G197" t="s">
+        <v>90</v>
+      </c>
+      <c r="H197" t="s">
+        <v>301</v>
+      </c>
+      <c r="I197" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" t="s">
         <v>461</v>
       </c>
@@ -5725,10 +7489,19 @@
         <v>463</v>
       </c>
       <c r="F198" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
+        <v>464</v>
+      </c>
+      <c r="G198" t="s">
+        <v>90</v>
+      </c>
+      <c r="H198" t="s">
+        <v>142</v>
+      </c>
+      <c r="I198" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" t="s">
         <v>465</v>
       </c>
@@ -5745,10 +7518,19 @@
         <v>467</v>
       </c>
       <c r="F199" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
+        <v>468</v>
+      </c>
+      <c r="G199" t="s">
+        <v>90</v>
+      </c>
+      <c r="H199" t="s">
+        <v>237</v>
+      </c>
+      <c r="I199" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" t="s">
         <v>469</v>
       </c>
@@ -5765,10 +7547,19 @@
         <v>471</v>
       </c>
       <c r="F200" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
+        <v>405</v>
+      </c>
+      <c r="G200" t="s">
+        <v>90</v>
+      </c>
+      <c r="H200" t="s">
+        <v>249</v>
+      </c>
+      <c r="I200" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" t="s">
         <v>472</v>
       </c>
@@ -5785,10 +7576,19 @@
         <v>474</v>
       </c>
       <c r="F201" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
+        <v>468</v>
+      </c>
+      <c r="G201" t="s">
+        <v>90</v>
+      </c>
+      <c r="H201" t="s">
+        <v>257</v>
+      </c>
+      <c r="I201" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" t="s">
         <v>475</v>
       </c>
@@ -5805,6 +7605,15 @@
         <v>478</v>
       </c>
       <c r="F202" t="s">
+        <v>222</v>
+      </c>
+      <c r="G202" t="s">
+        <v>90</v>
+      </c>
+      <c r="H202" t="s">
+        <v>249</v>
+      </c>
+      <c r="I202" t="s">
         <v>90</v>
       </c>
     </row>
